--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_22_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_22_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1159125.159316906</v>
+        <v>1217534.582038271</v>
       </c>
     </row>
     <row r="7">
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>187.5255871663201</v>
+        <v>182.5570120086798</v>
       </c>
       <c r="D11" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>11.36529914368137</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T11" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U11" t="n">
-        <v>165.1725371760947</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H12" t="n">
         <v>100.8417573507397</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>26.91122581714239</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U12" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>187.5255871663201</v>
+        <v>126.536694284127</v>
       </c>
       <c r="W12" t="n">
-        <v>64.33077982535504</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>16.40840697931748</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1572,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.343082173845772</v>
+        <v>3.343082173845815</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>15.106285867227</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U13" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C14" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="G14" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>11.36529914368131</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>153.8072380324132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>15.40229248514491</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>48.77881175550658</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>15.55196806984813</v>
       </c>
       <c r="S15" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W15" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X15" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.343082173845772</v>
+        <v>3.343082173845815</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U16" t="n">
-        <v>161.8294550022488</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V16" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>161.8294550022486</v>
       </c>
       <c r="X16" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>153.8072380324131</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>11.36529914368137</v>
       </c>
       <c r="S17" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>187.5255871663199</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>6.396723986041431</v>
       </c>
     </row>
     <row r="18">
@@ -1928,16 +1928,16 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>26.91122581714237</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1979,16 +1979,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="W18" t="n">
-        <v>114.5149250787128</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>144.1136550175548</v>
       </c>
       <c r="D19" t="n">
-        <v>90.49291763357452</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>153.4336708318196</v>
       </c>
       <c r="I19" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2046,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.343082173845772</v>
+        <v>3.343082173845815</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S19" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2083,14 +2083,14 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>153.8072380324131</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>187.5255871663199</v>
@@ -2162,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>15.40229248514486</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>130.5096658039035</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2174,10 +2174,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>131.8294280492389</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.0019352027142</v>
@@ -2259,7 +2259,7 @@
         <v>153.4336708318196</v>
       </c>
       <c r="I22" t="n">
-        <v>125.7072197708667</v>
+        <v>71.17263245598815</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="23">
@@ -2323,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>165.1725371760945</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
-        <v>153.8072380324131</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>187.5255871663199</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2453,10 +2453,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>7.527456720693524</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="W24" t="n">
         <v>187.5255871663199</v>
@@ -2465,7 +2465,7 @@
         <v>187.5255871663199</v>
       </c>
       <c r="Y24" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>161.8294550022487</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2520,25 +2520,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>39.26222649313095</v>
       </c>
       <c r="U25" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="V25" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,76 +2554,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>165.1725371760945</v>
-      </c>
       <c r="H26" t="n">
+        <v>165.1725371760944</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>187.5255871663199</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,19 +2633,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>56.50624419968899</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2690,16 +2690,16 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>138.261311358952</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>52.87381952900986</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>93.63290889532335</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>153.8072380324132</v>
       </c>
       <c r="F29" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>6.396723986041431</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S29" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>24.30055836245947</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>13.4564417042313</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U30" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>5.864208957762942</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="T31" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>32.35016756540426</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y31" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>153.8072380324131</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>187.5255871663199</v>
       </c>
       <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="V32" t="n">
+      <c r="Y32" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="W32" t="n">
-        <v>153.8072380324131</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3116,19 +3116,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3170,10 +3170,10 @@
         <v>187.5255871663199</v>
       </c>
       <c r="W33" t="n">
-        <v>28.51986023714613</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>187.5255871663199</v>
+        <v>178.5996398793603</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>141.7387788705637</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,16 +3201,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>2.521126783917172</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>187.5255871663199</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H35" t="n">
-        <v>6.396723986041382</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>39.70122005611973</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="U35" t="n">
-        <v>187.5255871663199</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>187.5255871663199</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3353,16 +3353,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>115.6925776258992</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H36" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>44.55389676611276</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>15.10628586722663</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H37" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3468,31 +3468,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="T37" t="n">
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>53.84340548766345</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,14 +3502,14 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
         <v>187.52558716632</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6.396723986041593</v>
       </c>
       <c r="H38" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>187.52558716632</v>
       </c>
       <c r="V38" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3629,22 +3629,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>26.91122581714238</v>
+        <v>22.34454489869805</v>
       </c>
       <c r="S39" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>3.308154846006734</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>52.62893363309651</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3705,22 +3705,22 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>29.00708539155843</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>187.52558716632</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>28.33592091243828</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>153.8072380324132</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="42">
@@ -3821,10 +3821,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H42" t="n">
         <v>100.8417573507397</v>
@@ -3866,25 +3866,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>143.6789615884428</v>
       </c>
       <c r="U42" t="n">
-        <v>64.33077982535475</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>36.12223523138228</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3942,25 +3942,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>47.15892438961035</v>
+        <v>187.52558716632</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V43" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>153.8072380324133</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y44" t="n">
-        <v>165.1725371760945</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="45">
@@ -4070,13 +4070,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H45" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,22 +4109,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U45" t="n">
-        <v>176.1663294190256</v>
+        <v>2.097521993176983</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W45" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>107.4468348054039</v>
+        <v>57.50003149906855</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>393.8416170062754</v>
+        <v>388.82285422078</v>
       </c>
       <c r="C11" t="n">
-        <v>204.4218319897905</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="D11" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E11" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F11" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G11" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H11" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I11" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J11" t="n">
-        <v>21.03371160678501</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K11" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058933</v>
       </c>
       <c r="L11" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079182</v>
       </c>
       <c r="M11" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N11" t="n">
-        <v>509.4952041123832</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O11" t="n">
-        <v>649.4845259985588</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P11" t="n">
-        <v>734.4611726020271</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q11" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R11" t="n">
-        <v>750.1023486652803</v>
+        <v>738.6222485201465</v>
       </c>
       <c r="S11" t="n">
-        <v>750.1023486652803</v>
+        <v>578.2426392372646</v>
       </c>
       <c r="T11" t="n">
-        <v>560.6825636487954</v>
+        <v>388.82285422078</v>
       </c>
       <c r="U11" t="n">
-        <v>393.8416170062754</v>
+        <v>388.82285422078</v>
       </c>
       <c r="V11" t="n">
-        <v>393.8416170062754</v>
+        <v>388.82285422078</v>
       </c>
       <c r="W11" t="n">
-        <v>393.8416170062754</v>
+        <v>388.82285422078</v>
       </c>
       <c r="X11" t="n">
-        <v>393.8416170062754</v>
+        <v>388.82285422078</v>
       </c>
       <c r="Y11" t="n">
-        <v>393.8416170062754</v>
+        <v>388.82285422078</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>116.8624079336487</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="C12" t="n">
-        <v>116.8624079336487</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="D12" t="n">
-        <v>116.8624079336487</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="E12" t="n">
-        <v>116.8624079336487</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="F12" t="n">
-        <v>116.8624079336487</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="G12" t="n">
         <v>116.8624079336487</v>
       </c>
       <c r="H12" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I12" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J12" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K12" t="n">
-        <v>67.13418877024218</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L12" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M12" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N12" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O12" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P12" t="n">
-        <v>739.5989987017068</v>
+        <v>739.5989987017058</v>
       </c>
       <c r="Q12" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R12" t="n">
-        <v>750.1023486652803</v>
+        <v>722.9192922843273</v>
       </c>
       <c r="S12" t="n">
-        <v>750.1023486652803</v>
+        <v>571.6362168389236</v>
       </c>
       <c r="T12" t="n">
-        <v>750.1023486652803</v>
+        <v>382.2164318224389</v>
       </c>
       <c r="U12" t="n">
-        <v>560.6825636487954</v>
+        <v>382.2164318224389</v>
       </c>
       <c r="V12" t="n">
-        <v>371.2627786323105</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="W12" t="n">
-        <v>306.2821929501337</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="X12" t="n">
-        <v>306.2821929501337</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="Y12" t="n">
-        <v>116.8624079336487</v>
+        <v>254.4015891111996</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>352.6270533382975</v>
+        <v>178.466142935173</v>
       </c>
       <c r="C13" t="n">
-        <v>183.6908704103906</v>
+        <v>178.466142935173</v>
       </c>
       <c r="D13" t="n">
-        <v>183.6908704103906</v>
+        <v>178.466142935173</v>
       </c>
       <c r="E13" t="n">
-        <v>183.6908704103906</v>
+        <v>178.466142935173</v>
       </c>
       <c r="F13" t="n">
-        <v>183.6908704103906</v>
+        <v>31.57619543726264</v>
       </c>
       <c r="G13" t="n">
-        <v>15.0020469733056</v>
+        <v>31.57619543726264</v>
       </c>
       <c r="H13" t="n">
-        <v>15.0020469733056</v>
+        <v>31.57619543726264</v>
       </c>
       <c r="I13" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J13" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K13" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L13" t="n">
-        <v>187.8896250884407</v>
+        <v>100.3335179349381</v>
       </c>
       <c r="M13" t="n">
-        <v>373.5399563830975</v>
+        <v>285.9838492295947</v>
       </c>
       <c r="N13" t="n">
-        <v>559.1902876777544</v>
+        <v>471.6341805242513</v>
       </c>
       <c r="O13" t="n">
-        <v>721.9284911143046</v>
+        <v>634.3723839608015</v>
       </c>
       <c r="P13" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="Q13" t="n">
-        <v>746.725497984628</v>
+        <v>746.7254979846269</v>
       </c>
       <c r="R13" t="n">
-        <v>746.725497984628</v>
+        <v>746.7254979846269</v>
       </c>
       <c r="S13" t="n">
-        <v>731.4666233712674</v>
+        <v>557.3057129681423</v>
       </c>
       <c r="T13" t="n">
-        <v>731.4666233712674</v>
+        <v>367.8859279516577</v>
       </c>
       <c r="U13" t="n">
-        <v>542.0468383547825</v>
+        <v>178.466142935173</v>
       </c>
       <c r="V13" t="n">
-        <v>542.0468383547825</v>
+        <v>178.466142935173</v>
       </c>
       <c r="W13" t="n">
-        <v>352.6270533382975</v>
+        <v>178.466142935173</v>
       </c>
       <c r="X13" t="n">
-        <v>352.6270533382975</v>
+        <v>178.466142935173</v>
       </c>
       <c r="Y13" t="n">
-        <v>352.6270533382975</v>
+        <v>178.466142935173</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>393.8416170062752</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="C14" t="n">
-        <v>204.4218319897904</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="D14" t="n">
-        <v>204.4218319897904</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="E14" t="n">
-        <v>204.4218319897904</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="F14" t="n">
-        <v>204.4218319897904</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G14" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H14" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I14" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J14" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678466</v>
       </c>
       <c r="K14" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058893</v>
       </c>
       <c r="L14" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079178</v>
       </c>
       <c r="M14" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644747</v>
       </c>
       <c r="N14" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123821</v>
       </c>
       <c r="O14" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985577</v>
       </c>
       <c r="P14" t="n">
-        <v>734.4611726020265</v>
+        <v>734.4611726020261</v>
       </c>
       <c r="Q14" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652791</v>
       </c>
       <c r="R14" t="n">
-        <v>738.6222485201471</v>
+        <v>750.1023486652791</v>
       </c>
       <c r="S14" t="n">
-        <v>738.6222485201471</v>
+        <v>750.1023486652791</v>
       </c>
       <c r="T14" t="n">
-        <v>738.6222485201471</v>
+        <v>560.6825636487945</v>
       </c>
       <c r="U14" t="n">
-        <v>738.6222485201471</v>
+        <v>371.2627786323098</v>
       </c>
       <c r="V14" t="n">
-        <v>738.6222485201471</v>
+        <v>371.2627786323098</v>
       </c>
       <c r="W14" t="n">
-        <v>738.6222485201471</v>
+        <v>371.2627786323098</v>
       </c>
       <c r="X14" t="n">
-        <v>738.6222485201471</v>
+        <v>371.2627786323098</v>
       </c>
       <c r="Y14" t="n">
-        <v>583.26140202276</v>
+        <v>371.2627786323098</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>30.55991817042167</v>
+        <v>166.133934959413</v>
       </c>
       <c r="C15" t="n">
-        <v>30.55991817042167</v>
+        <v>166.133934959413</v>
       </c>
       <c r="D15" t="n">
-        <v>30.55991817042167</v>
+        <v>166.133934959413</v>
       </c>
       <c r="E15" t="n">
-        <v>15.00204697330559</v>
+        <v>166.133934959413</v>
       </c>
       <c r="F15" t="n">
-        <v>15.00204697330559</v>
+        <v>166.133934959413</v>
       </c>
       <c r="G15" t="n">
-        <v>15.00204697330559</v>
+        <v>166.133934959413</v>
       </c>
       <c r="H15" t="n">
-        <v>15.00204697330559</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I15" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J15" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K15" t="n">
-        <v>67.13418877024216</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L15" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M15" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N15" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O15" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P15" t="n">
-        <v>739.5989987017063</v>
+        <v>739.5989987017058</v>
       </c>
       <c r="Q15" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652791</v>
       </c>
       <c r="R15" t="n">
-        <v>750.1023486652797</v>
+        <v>734.3932900088669</v>
       </c>
       <c r="S15" t="n">
-        <v>598.819273219876</v>
+        <v>734.3932900088669</v>
       </c>
       <c r="T15" t="n">
-        <v>598.819273219876</v>
+        <v>734.3932900088669</v>
       </c>
       <c r="U15" t="n">
-        <v>409.3994882033912</v>
+        <v>544.9735049923822</v>
       </c>
       <c r="V15" t="n">
-        <v>409.3994882033912</v>
+        <v>355.5537199758976</v>
       </c>
       <c r="W15" t="n">
-        <v>219.9797031869064</v>
+        <v>166.133934959413</v>
       </c>
       <c r="X15" t="n">
-        <v>30.55991817042167</v>
+        <v>166.133934959413</v>
       </c>
       <c r="Y15" t="n">
-        <v>30.55991817042167</v>
+        <v>166.133934959413</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="C16" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D16" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E16" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F16" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G16" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H16" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I16" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J16" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K16" t="n">
-        <v>15.00204697330559</v>
+        <v>88.85718952202674</v>
       </c>
       <c r="L16" t="n">
-        <v>187.8896250884407</v>
+        <v>261.7447676371618</v>
       </c>
       <c r="M16" t="n">
-        <v>373.5399563830974</v>
+        <v>447.3950989318183</v>
       </c>
       <c r="N16" t="n">
-        <v>559.1902876777542</v>
+        <v>633.0454302264749</v>
       </c>
       <c r="O16" t="n">
-        <v>721.9284911143044</v>
+        <v>634.3723839608014</v>
       </c>
       <c r="P16" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652791</v>
       </c>
       <c r="Q16" t="n">
-        <v>746.7254979846274</v>
+        <v>746.7254979846268</v>
       </c>
       <c r="R16" t="n">
-        <v>746.7254979846274</v>
+        <v>746.7254979846268</v>
       </c>
       <c r="S16" t="n">
-        <v>746.7254979846274</v>
+        <v>746.7254979846268</v>
       </c>
       <c r="T16" t="n">
-        <v>557.3057129681426</v>
+        <v>557.3057129681422</v>
       </c>
       <c r="U16" t="n">
-        <v>393.8416170062752</v>
+        <v>367.8859279516575</v>
       </c>
       <c r="V16" t="n">
-        <v>204.4218319897904</v>
+        <v>178.4661429351729</v>
       </c>
       <c r="W16" t="n">
-        <v>204.4218319897904</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="X16" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>204.4218319897903</v>
+        <v>359.7826784871773</v>
       </c>
       <c r="C17" t="n">
-        <v>204.4218319897903</v>
+        <v>359.7826784871773</v>
       </c>
       <c r="D17" t="n">
-        <v>204.4218319897903</v>
+        <v>359.7826784871773</v>
       </c>
       <c r="E17" t="n">
-        <v>15.00204697330559</v>
+        <v>170.3628934706926</v>
       </c>
       <c r="F17" t="n">
-        <v>15.00204697330559</v>
+        <v>170.3628934706926</v>
       </c>
       <c r="G17" t="n">
         <v>15.00204697330559</v>
@@ -5515,52 +5515,52 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J17" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K17" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058984</v>
       </c>
       <c r="L17" t="n">
-        <v>191.8743094079184</v>
+        <v>191.874309407919</v>
       </c>
       <c r="M17" t="n">
-        <v>347.1218190644752</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N17" t="n">
-        <v>509.4952041123827</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O17" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P17" t="n">
-        <v>734.4611726020264</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q17" t="n">
         <v>750.1023486652796</v>
       </c>
       <c r="R17" t="n">
-        <v>750.1023486652796</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="S17" t="n">
-        <v>589.7227393823977</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="T17" t="n">
-        <v>400.3029543659129</v>
+        <v>549.2024635036621</v>
       </c>
       <c r="U17" t="n">
-        <v>400.3029543659129</v>
+        <v>549.2024635036621</v>
       </c>
       <c r="V17" t="n">
-        <v>210.8831693494282</v>
+        <v>549.2024635036621</v>
       </c>
       <c r="W17" t="n">
-        <v>210.8831693494282</v>
+        <v>549.2024635036621</v>
       </c>
       <c r="X17" t="n">
-        <v>210.8831693494282</v>
+        <v>549.2024635036621</v>
       </c>
       <c r="Y17" t="n">
-        <v>204.4218319897903</v>
+        <v>359.7826784871773</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>607.2476507906783</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C18" t="n">
-        <v>607.2476507906783</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D18" t="n">
-        <v>458.313241129427</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E18" t="n">
-        <v>299.0757861239715</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F18" t="n">
-        <v>152.5412281508565</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G18" t="n">
         <v>15.00204697330559</v>
@@ -5597,19 +5597,19 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K18" t="n">
-        <v>67.13418877024188</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L18" t="n">
-        <v>183.5548280772647</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M18" t="n">
-        <v>338.7690911140242</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N18" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O18" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P18" t="n">
         <v>739.5989987017061</v>
@@ -5618,28 +5618,28 @@
         <v>750.1023486652796</v>
       </c>
       <c r="R18" t="n">
-        <v>722.9192922843276</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S18" t="n">
-        <v>722.9192922843276</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T18" t="n">
-        <v>722.9192922843276</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="U18" t="n">
-        <v>722.9192922843276</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="V18" t="n">
-        <v>722.9192922843276</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="W18" t="n">
-        <v>607.2476507906783</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="X18" t="n">
-        <v>607.2476507906783</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y18" t="n">
-        <v>607.2476507906783</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>557.3057129681425</v>
+        <v>612.5614882768592</v>
       </c>
       <c r="C19" t="n">
-        <v>388.3695300402356</v>
+        <v>466.9921397742786</v>
       </c>
       <c r="D19" t="n">
-        <v>296.9625425315745</v>
+        <v>316.8755003619428</v>
       </c>
       <c r="E19" t="n">
-        <v>296.9625425315745</v>
+        <v>316.8755003619428</v>
       </c>
       <c r="F19" t="n">
-        <v>296.9625425315745</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="G19" t="n">
-        <v>296.9625425315745</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="H19" t="n">
-        <v>141.9790366408477</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I19" t="n">
         <v>15.00204697330559</v>
@@ -5676,16 +5676,16 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K19" t="n">
-        <v>15.00204697330559</v>
+        <v>106.7151088594233</v>
       </c>
       <c r="L19" t="n">
-        <v>100.3335179349383</v>
+        <v>279.6026869745584</v>
       </c>
       <c r="M19" t="n">
-        <v>285.983849229595</v>
+        <v>295.5529562639637</v>
       </c>
       <c r="N19" t="n">
-        <v>471.6341805242516</v>
+        <v>471.6341805242517</v>
       </c>
       <c r="O19" t="n">
         <v>634.3723839608018</v>
@@ -5697,28 +5697,28 @@
         <v>746.7254979846273</v>
       </c>
       <c r="R19" t="n">
-        <v>746.7254979846273</v>
+        <v>612.5614882768592</v>
       </c>
       <c r="S19" t="n">
-        <v>557.3057129681425</v>
+        <v>612.5614882768592</v>
       </c>
       <c r="T19" t="n">
-        <v>557.3057129681425</v>
+        <v>612.5614882768592</v>
       </c>
       <c r="U19" t="n">
-        <v>557.3057129681425</v>
+        <v>612.5614882768592</v>
       </c>
       <c r="V19" t="n">
-        <v>557.3057129681425</v>
+        <v>612.5614882768592</v>
       </c>
       <c r="W19" t="n">
-        <v>557.3057129681425</v>
+        <v>612.5614882768592</v>
       </c>
       <c r="X19" t="n">
-        <v>557.3057129681425</v>
+        <v>612.5614882768592</v>
       </c>
       <c r="Y19" t="n">
-        <v>557.3057129681425</v>
+        <v>612.5614882768592</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>359.7826784871773</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="C20" t="n">
-        <v>204.4218319897903</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="D20" t="n">
-        <v>15.00204697330559</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="E20" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="F20" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="G20" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="H20" t="n">
         <v>15.00204697330559</v>
@@ -5752,19 +5752,19 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J20" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K20" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L20" t="n">
         <v>191.8743094079184</v>
       </c>
       <c r="M20" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N20" t="n">
-        <v>509.4952041123827</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O20" t="n">
         <v>649.4845259985582</v>
@@ -5776,28 +5776,28 @@
         <v>750.1023486652796</v>
       </c>
       <c r="R20" t="n">
-        <v>738.6222485201469</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S20" t="n">
-        <v>738.6222485201469</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T20" t="n">
-        <v>738.6222485201469</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="U20" t="n">
-        <v>549.2024635036621</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="V20" t="n">
-        <v>549.2024635036621</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="W20" t="n">
-        <v>359.7826784871773</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="X20" t="n">
-        <v>359.7826784871773</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="Y20" t="n">
-        <v>359.7826784871773</v>
+        <v>371.2627786323101</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>30.55991817042161</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="C21" t="n">
-        <v>15.00204697330559</v>
+        <v>386.2295343676678</v>
       </c>
       <c r="D21" t="n">
-        <v>15.00204697330559</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="E21" t="n">
-        <v>15.00204697330559</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="F21" t="n">
-        <v>15.00204697330559</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="G21" t="n">
-        <v>15.00204697330559</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H21" t="n">
         <v>15.00204697330559</v>
@@ -5858,25 +5858,25 @@
         <v>750.1023486652796</v>
       </c>
       <c r="S21" t="n">
-        <v>598.8192732198759</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T21" t="n">
-        <v>409.3994882033911</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="U21" t="n">
-        <v>219.9797031869064</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="V21" t="n">
-        <v>219.9797031869064</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="W21" t="n">
-        <v>219.9797031869064</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="X21" t="n">
-        <v>219.9797031869064</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="Y21" t="n">
-        <v>30.55991817042161</v>
+        <v>560.6825636487948</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>746.7254979846273</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="C22" t="n">
-        <v>746.7254979846273</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="D22" t="n">
-        <v>746.7254979846273</v>
+        <v>410.5659242364591</v>
       </c>
       <c r="E22" t="n">
-        <v>598.8124044022342</v>
+        <v>410.5659242364591</v>
       </c>
       <c r="F22" t="n">
-        <v>465.6513659686595</v>
+        <v>410.5659242364591</v>
       </c>
       <c r="G22" t="n">
-        <v>296.9625425315745</v>
+        <v>241.877100799374</v>
       </c>
       <c r="H22" t="n">
-        <v>141.9790366408477</v>
+        <v>86.89359490864717</v>
       </c>
       <c r="I22" t="n">
         <v>15.00204697330559</v>
@@ -5931,31 +5931,31 @@
         <v>750.1023486652796</v>
       </c>
       <c r="Q22" t="n">
-        <v>746.7254979846273</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R22" t="n">
-        <v>746.7254979846273</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S22" t="n">
-        <v>746.7254979846273</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T22" t="n">
-        <v>746.7254979846273</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="U22" t="n">
-        <v>746.7254979846273</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="V22" t="n">
-        <v>746.7254979846273</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="W22" t="n">
-        <v>746.7254979846273</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="X22" t="n">
-        <v>746.7254979846273</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="Y22" t="n">
-        <v>746.7254979846273</v>
+        <v>560.6825636487948</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>359.7826784871773</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="C23" t="n">
-        <v>359.7826784871773</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="D23" t="n">
-        <v>170.3628934706926</v>
+        <v>393.841617006275</v>
       </c>
       <c r="E23" t="n">
-        <v>170.3628934706926</v>
+        <v>393.841617006275</v>
       </c>
       <c r="F23" t="n">
-        <v>170.3628934706926</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G23" t="n">
         <v>15.00204697330559</v>
@@ -6001,40 +6001,40 @@
         <v>347.1218190644755</v>
       </c>
       <c r="N23" t="n">
-        <v>509.4952041123829</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O23" t="n">
-        <v>649.4845259985583</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P23" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q23" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R23" t="n">
-        <v>738.6222485201469</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S23" t="n">
-        <v>738.6222485201469</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T23" t="n">
-        <v>549.2024635036621</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U23" t="n">
-        <v>549.2024635036621</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V23" t="n">
-        <v>549.2024635036621</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W23" t="n">
-        <v>549.2024635036621</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="X23" t="n">
-        <v>359.7826784871773</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Y23" t="n">
-        <v>359.7826784871773</v>
+        <v>560.6825636487947</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>174.2395019787611</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C24" t="n">
-        <v>174.2395019787611</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D24" t="n">
-        <v>174.2395019787611</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E24" t="n">
         <v>15.00204697330559</v>
@@ -6071,49 +6071,49 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K24" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L24" t="n">
         <v>183.5548280772649</v>
       </c>
       <c r="M24" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N24" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O24" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476346</v>
       </c>
       <c r="P24" t="n">
-        <v>739.5989987017061</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q24" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R24" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S24" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T24" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U24" t="n">
-        <v>742.4988570282154</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="V24" t="n">
-        <v>742.4988570282154</v>
+        <v>393.841617006275</v>
       </c>
       <c r="W24" t="n">
-        <v>553.0790720117307</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="X24" t="n">
-        <v>363.6592869952458</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y24" t="n">
-        <v>174.2395019787611</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.00204697330559</v>
+        <v>331.6039639927837</v>
       </c>
       <c r="C25" t="n">
-        <v>15.00204697330559</v>
+        <v>331.6039639927837</v>
       </c>
       <c r="D25" t="n">
-        <v>15.00204697330559</v>
+        <v>331.6039639927837</v>
       </c>
       <c r="E25" t="n">
-        <v>15.00204697330559</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="F25" t="n">
-        <v>15.00204697330559</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="G25" t="n">
         <v>15.00204697330559</v>
@@ -6150,49 +6150,49 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K25" t="n">
-        <v>43.17590452428098</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L25" t="n">
-        <v>216.063482639416</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M25" t="n">
-        <v>401.7138139340727</v>
+        <v>373.5399563830973</v>
       </c>
       <c r="N25" t="n">
-        <v>587.3641452287294</v>
+        <v>559.190287677754</v>
       </c>
       <c r="O25" t="n">
-        <v>750.1023486652796</v>
+        <v>721.9284911143042</v>
       </c>
       <c r="P25" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q25" t="n">
-        <v>746.7254979846273</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R25" t="n">
-        <v>746.7254979846273</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S25" t="n">
-        <v>746.7254979846273</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="T25" t="n">
-        <v>746.7254979846273</v>
+        <v>521.0237490092685</v>
       </c>
       <c r="U25" t="n">
-        <v>557.3057129681425</v>
+        <v>331.6039639927837</v>
       </c>
       <c r="V25" t="n">
-        <v>367.8859279516578</v>
+        <v>331.6039639927837</v>
       </c>
       <c r="W25" t="n">
-        <v>178.466142935173</v>
+        <v>331.6039639927837</v>
       </c>
       <c r="X25" t="n">
-        <v>178.466142935173</v>
+        <v>331.6039639927837</v>
       </c>
       <c r="Y25" t="n">
-        <v>178.466142935173</v>
+        <v>331.6039639927837</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>560.6825636487948</v>
+        <v>371.26277863231</v>
       </c>
       <c r="C26" t="n">
-        <v>371.2627786323101</v>
+        <v>371.26277863231</v>
       </c>
       <c r="D26" t="n">
-        <v>371.2627786323101</v>
+        <v>371.26277863231</v>
       </c>
       <c r="E26" t="n">
-        <v>371.2627786323101</v>
+        <v>371.26277863231</v>
       </c>
       <c r="F26" t="n">
-        <v>371.2627786323101</v>
+        <v>371.26277863231</v>
       </c>
       <c r="G26" t="n">
-        <v>204.4218319897903</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="H26" t="n">
         <v>15.00204697330559</v>
@@ -6226,52 +6226,52 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J26" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678461</v>
       </c>
       <c r="K26" t="n">
-        <v>80.81213159058939</v>
+        <v>80.8121315905891</v>
       </c>
       <c r="L26" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079181</v>
       </c>
       <c r="M26" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644752</v>
       </c>
       <c r="N26" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O26" t="n">
-        <v>649.4845259985582</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P26" t="n">
-        <v>734.4611726020264</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q26" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R26" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S26" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T26" t="n">
-        <v>560.6825636487948</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U26" t="n">
-        <v>560.6825636487948</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V26" t="n">
-        <v>560.6825636487948</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W26" t="n">
-        <v>560.6825636487948</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="X26" t="n">
-        <v>560.6825636487948</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Y26" t="n">
-        <v>560.6825636487948</v>
+        <v>560.6825636487947</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>554.7039552642595</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C27" t="n">
-        <v>380.2509259831326</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D27" t="n">
-        <v>231.3165163218813</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E27" t="n">
-        <v>72.07906131642579</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F27" t="n">
         <v>15.00204697330559</v>
@@ -6308,49 +6308,49 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K27" t="n">
-        <v>67.13418877024213</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L27" t="n">
         <v>183.5548280772649</v>
       </c>
       <c r="M27" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N27" t="n">
         <v>512.5000587546601</v>
       </c>
       <c r="O27" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P27" t="n">
-        <v>739.5989987017063</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q27" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R27" t="n">
-        <v>722.9192922843276</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="S27" t="n">
-        <v>722.9192922843276</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="T27" t="n">
-        <v>722.9192922843276</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="U27" t="n">
-        <v>722.9192922843276</v>
+        <v>533.4995072678428</v>
       </c>
       <c r="V27" t="n">
-        <v>722.9192922843276</v>
+        <v>344.079722251358</v>
       </c>
       <c r="W27" t="n">
-        <v>722.9192922843276</v>
+        <v>154.6599372348733</v>
       </c>
       <c r="X27" t="n">
-        <v>722.9192922843276</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y27" t="n">
-        <v>722.9192922843276</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.6908704103906</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="C28" t="n">
-        <v>183.6908704103906</v>
+        <v>581.1661657373726</v>
       </c>
       <c r="D28" t="n">
-        <v>183.6908704103906</v>
+        <v>581.1661657373726</v>
       </c>
       <c r="E28" t="n">
-        <v>183.6908704103906</v>
+        <v>433.2530721549795</v>
       </c>
       <c r="F28" t="n">
-        <v>183.6908704103906</v>
+        <v>433.2530721549795</v>
       </c>
       <c r="G28" t="n">
-        <v>15.00204697330559</v>
+        <v>264.5642487178944</v>
       </c>
       <c r="H28" t="n">
-        <v>15.00204697330559</v>
+        <v>109.5807428271676</v>
       </c>
       <c r="I28" t="n">
         <v>15.00204697330559</v>
@@ -6387,49 +6387,49 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K28" t="n">
-        <v>15.00204697330559</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L28" t="n">
-        <v>187.8896250884407</v>
+        <v>216.063482639416</v>
       </c>
       <c r="M28" t="n">
-        <v>373.5399563830973</v>
+        <v>401.7138139340726</v>
       </c>
       <c r="N28" t="n">
-        <v>559.190287677754</v>
+        <v>587.3641452287293</v>
       </c>
       <c r="O28" t="n">
-        <v>721.9284911143042</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="P28" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q28" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R28" t="n">
-        <v>615.9383389575115</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S28" t="n">
-        <v>615.9383389575115</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T28" t="n">
-        <v>426.5185539410268</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U28" t="n">
-        <v>426.5185539410268</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V28" t="n">
-        <v>426.5185539410268</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W28" t="n">
-        <v>426.5185539410268</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="X28" t="n">
-        <v>237.098768924542</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Y28" t="n">
-        <v>237.098768924542</v>
+        <v>750.1023486652795</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>393.8416170062751</v>
+        <v>359.7826784871776</v>
       </c>
       <c r="C29" t="n">
-        <v>393.8416170062751</v>
+        <v>170.3628934706927</v>
       </c>
       <c r="D29" t="n">
-        <v>393.8416170062751</v>
+        <v>170.3628934706927</v>
       </c>
       <c r="E29" t="n">
-        <v>393.8416170062751</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F29" t="n">
-        <v>204.4218319897903</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G29" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H29" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I29" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J29" t="n">
-        <v>21.03371160678496</v>
+        <v>21.03371160678518</v>
       </c>
       <c r="K29" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058967</v>
       </c>
       <c r="L29" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M29" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N29" t="n">
-        <v>509.4952041123829</v>
+        <v>509.4952041123831</v>
       </c>
       <c r="O29" t="n">
-        <v>649.4845259985583</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P29" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q29" t="n">
-        <v>750.1023486652796</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R29" t="n">
-        <v>743.6410113056418</v>
+        <v>738.6222485201473</v>
       </c>
       <c r="S29" t="n">
-        <v>583.2614020227599</v>
+        <v>738.6222485201473</v>
       </c>
       <c r="T29" t="n">
-        <v>393.8416170062751</v>
+        <v>549.2024635036624</v>
       </c>
       <c r="U29" t="n">
-        <v>393.8416170062751</v>
+        <v>549.2024635036624</v>
       </c>
       <c r="V29" t="n">
-        <v>393.8416170062751</v>
+        <v>549.2024635036624</v>
       </c>
       <c r="W29" t="n">
-        <v>393.8416170062751</v>
+        <v>549.2024635036624</v>
       </c>
       <c r="X29" t="n">
-        <v>393.8416170062751</v>
+        <v>549.2024635036624</v>
       </c>
       <c r="Y29" t="n">
-        <v>393.8416170062751</v>
+        <v>549.2024635036624</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>189.4550762544326</v>
+        <v>214.0010948023715</v>
       </c>
       <c r="C30" t="n">
-        <v>15.00204697330559</v>
+        <v>39.54806552124447</v>
       </c>
       <c r="D30" t="n">
-        <v>15.00204697330559</v>
+        <v>39.54806552124447</v>
       </c>
       <c r="E30" t="n">
-        <v>15.00204697330559</v>
+        <v>39.54806552124447</v>
       </c>
       <c r="F30" t="n">
-        <v>15.00204697330559</v>
+        <v>39.54806552124447</v>
       </c>
       <c r="G30" t="n">
-        <v>15.00204697330559</v>
+        <v>39.54806552124447</v>
       </c>
       <c r="H30" t="n">
-        <v>15.00204697330559</v>
+        <v>39.54806552124447</v>
       </c>
       <c r="I30" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J30" t="n">
-        <v>15.0020469733055</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K30" t="n">
-        <v>67.13418877024205</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L30" t="n">
-        <v>183.5548280772648</v>
+        <v>183.5548280772653</v>
       </c>
       <c r="M30" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N30" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O30" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P30" t="n">
-        <v>739.5989987017061</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q30" t="n">
-        <v>750.1023486652796</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R30" t="n">
-        <v>736.5099833074702</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="S30" t="n">
-        <v>736.5099833074702</v>
+        <v>571.6362168389244</v>
       </c>
       <c r="T30" t="n">
-        <v>736.5099833074702</v>
+        <v>382.2164318224395</v>
       </c>
       <c r="U30" t="n">
-        <v>547.0901982909854</v>
+        <v>382.2164318224395</v>
       </c>
       <c r="V30" t="n">
-        <v>547.0901982909854</v>
+        <v>382.2164318224395</v>
       </c>
       <c r="W30" t="n">
-        <v>547.0901982909854</v>
+        <v>382.2164318224395</v>
       </c>
       <c r="X30" t="n">
-        <v>547.0901982909854</v>
+        <v>382.2164318224395</v>
       </c>
       <c r="Y30" t="n">
-        <v>357.6704132745007</v>
+        <v>382.2164318224395</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.6143138020704</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C31" t="n">
-        <v>189.6143138020704</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D31" t="n">
-        <v>189.6143138020704</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E31" t="n">
-        <v>189.6143138020704</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F31" t="n">
-        <v>183.6908704103906</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G31" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H31" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I31" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J31" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K31" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L31" t="n">
         <v>187.8896250884407</v>
       </c>
       <c r="M31" t="n">
-        <v>373.5399563830973</v>
+        <v>373.5399563830974</v>
       </c>
       <c r="N31" t="n">
-        <v>471.6341805242516</v>
+        <v>559.1902876777542</v>
       </c>
       <c r="O31" t="n">
-        <v>634.3723839608018</v>
+        <v>721.9284911143044</v>
       </c>
       <c r="P31" t="n">
-        <v>750.1023486652796</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Q31" t="n">
-        <v>750.1023486652796</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R31" t="n">
-        <v>750.1023486652796</v>
+        <v>615.938338957512</v>
       </c>
       <c r="S31" t="n">
-        <v>750.1023486652796</v>
+        <v>426.5185539410271</v>
       </c>
       <c r="T31" t="n">
-        <v>560.6825636487948</v>
+        <v>426.5185539410271</v>
       </c>
       <c r="U31" t="n">
-        <v>560.6825636487948</v>
+        <v>426.5185539410271</v>
       </c>
       <c r="V31" t="n">
-        <v>560.6825636487948</v>
+        <v>237.0987689245422</v>
       </c>
       <c r="W31" t="n">
-        <v>560.6825636487948</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="X31" t="n">
-        <v>560.6825636487948</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y31" t="n">
-        <v>371.2627786323101</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>15.00204697330559</v>
+        <v>170.3628934706926</v>
       </c>
       <c r="C32" t="n">
         <v>15.00204697330559</v>
@@ -6733,19 +6733,19 @@
         <v>549.2024635036621</v>
       </c>
       <c r="U32" t="n">
+        <v>549.2024635036621</v>
+      </c>
+      <c r="V32" t="n">
+        <v>549.2024635036621</v>
+      </c>
+      <c r="W32" t="n">
+        <v>549.2024635036621</v>
+      </c>
+      <c r="X32" t="n">
         <v>359.7826784871773</v>
       </c>
-      <c r="V32" t="n">
+      <c r="Y32" t="n">
         <v>170.3628934706926</v>
-      </c>
-      <c r="W32" t="n">
-        <v>15.00204697330559</v>
-      </c>
-      <c r="X32" t="n">
-        <v>15.00204697330559</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="33">
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>174.2395019787611</v>
+        <v>201.8127551766207</v>
       </c>
       <c r="C33" t="n">
-        <v>174.2395019787611</v>
+        <v>201.8127551766207</v>
       </c>
       <c r="D33" t="n">
-        <v>174.2395019787611</v>
+        <v>201.8127551766207</v>
       </c>
       <c r="E33" t="n">
-        <v>15.00204697330559</v>
+        <v>201.8127551766207</v>
       </c>
       <c r="F33" t="n">
-        <v>15.00204697330559</v>
+        <v>201.8127551766207</v>
       </c>
       <c r="G33" t="n">
-        <v>15.00204697330559</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="H33" t="n">
-        <v>15.00204697330559</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I33" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="J33" t="n">
-        <v>15.0020469733055</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K33" t="n">
-        <v>67.13418877024205</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L33" t="n">
-        <v>183.5548280772648</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M33" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N33" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O33" t="n">
         <v>649.2101578476347</v>
@@ -6803,28 +6803,28 @@
         <v>750.1023486652796</v>
       </c>
       <c r="R33" t="n">
-        <v>750.1023486652796</v>
+        <v>722.9192922843276</v>
       </c>
       <c r="S33" t="n">
-        <v>750.1023486652796</v>
+        <v>571.6362168389239</v>
       </c>
       <c r="T33" t="n">
-        <v>750.1023486652796</v>
+        <v>571.6362168389239</v>
       </c>
       <c r="U33" t="n">
-        <v>750.1023486652796</v>
+        <v>571.6362168389239</v>
       </c>
       <c r="V33" t="n">
-        <v>560.6825636487948</v>
+        <v>382.2164318224392</v>
       </c>
       <c r="W33" t="n">
-        <v>531.8746240153139</v>
+        <v>382.2164318224392</v>
       </c>
       <c r="X33" t="n">
-        <v>342.4548389988291</v>
+        <v>201.8127551766207</v>
       </c>
       <c r="Y33" t="n">
-        <v>342.4548389988291</v>
+        <v>201.8127551766207</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>186.2374631214181</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="C34" t="n">
-        <v>186.2374631214181</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="D34" t="n">
-        <v>186.2374631214181</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="E34" t="n">
-        <v>186.2374631214181</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="F34" t="n">
-        <v>186.2374631214181</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="G34" t="n">
-        <v>17.54863968433304</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="H34" t="n">
-        <v>17.54863968433304</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="I34" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="J34" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="K34" t="n">
-        <v>15.00204697330559</v>
+        <v>43.17590452428098</v>
       </c>
       <c r="L34" t="n">
-        <v>187.8896250884407</v>
+        <v>216.063482639416</v>
       </c>
       <c r="M34" t="n">
-        <v>373.5399563830973</v>
+        <v>401.7138139340727</v>
       </c>
       <c r="N34" t="n">
-        <v>559.190287677754</v>
+        <v>587.3641452287294</v>
       </c>
       <c r="O34" t="n">
-        <v>721.9284911143042</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="P34" t="n">
         <v>750.1023486652796</v>
       </c>
       <c r="Q34" t="n">
-        <v>746.7254979846273</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R34" t="n">
-        <v>746.7254979846273</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S34" t="n">
-        <v>746.7254979846273</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T34" t="n">
-        <v>557.3057129681425</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="U34" t="n">
-        <v>557.3057129681425</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="V34" t="n">
-        <v>557.3057129681425</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="W34" t="n">
-        <v>557.3057129681425</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="X34" t="n">
-        <v>557.3057129681425</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="Y34" t="n">
-        <v>367.8859279516578</v>
+        <v>181.8429936158253</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>21.46338433294335</v>
+        <v>331.160536151381</v>
       </c>
       <c r="C35" t="n">
-        <v>21.46338433294335</v>
+        <v>331.160536151381</v>
       </c>
       <c r="D35" t="n">
-        <v>21.46338433294335</v>
+        <v>331.160536151381</v>
       </c>
       <c r="E35" t="n">
-        <v>21.46338433294335</v>
+        <v>331.160536151381</v>
       </c>
       <c r="F35" t="n">
-        <v>21.46338433294335</v>
+        <v>331.160536151381</v>
       </c>
       <c r="G35" t="n">
-        <v>21.46338433294335</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H35" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I35" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="J35" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K35" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L35" t="n">
         <v>191.8743094079184</v>
       </c>
       <c r="M35" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N35" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O35" t="n">
         <v>649.4845259985582</v>
       </c>
       <c r="P35" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q35" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R35" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S35" t="n">
-        <v>589.7227393823975</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T35" t="n">
-        <v>400.3029543659128</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="U35" t="n">
-        <v>210.8831693494281</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="V35" t="n">
-        <v>210.8831693494281</v>
+        <v>710.0001061843506</v>
       </c>
       <c r="W35" t="n">
-        <v>210.8831693494281</v>
+        <v>710.0001061843506</v>
       </c>
       <c r="X35" t="n">
-        <v>21.46338433294335</v>
+        <v>710.0001061843506</v>
       </c>
       <c r="Y35" t="n">
-        <v>21.46338433294335</v>
+        <v>520.5803211678658</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>371.26277863231</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="C36" t="n">
-        <v>371.26277863231</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="D36" t="n">
-        <v>371.26277863231</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="E36" t="n">
-        <v>254.4015891111996</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="F36" t="n">
-        <v>254.4015891111996</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G36" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H36" t="n">
         <v>15.00204697330559</v>
@@ -7016,13 +7016,13 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J36" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733055</v>
       </c>
       <c r="K36" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024205</v>
       </c>
       <c r="L36" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M36" t="n">
         <v>338.7690911140243</v>
@@ -7034,34 +7034,34 @@
         <v>649.2101578476347</v>
       </c>
       <c r="P36" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017061</v>
       </c>
       <c r="Q36" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R36" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843276</v>
       </c>
       <c r="S36" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843276</v>
       </c>
       <c r="T36" t="n">
-        <v>560.6825636487947</v>
+        <v>722.9192922843276</v>
       </c>
       <c r="U36" t="n">
-        <v>371.26277863231</v>
+        <v>533.4995072678429</v>
       </c>
       <c r="V36" t="n">
-        <v>371.26277863231</v>
+        <v>488.4955711404563</v>
       </c>
       <c r="W36" t="n">
-        <v>371.26277863231</v>
+        <v>488.4955711404563</v>
       </c>
       <c r="X36" t="n">
-        <v>371.26277863231</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="Y36" t="n">
-        <v>371.26277863231</v>
+        <v>299.0757861239715</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>316.8755003619428</v>
+        <v>367.8859279516578</v>
       </c>
       <c r="C37" t="n">
-        <v>316.8755003619428</v>
+        <v>198.9497450237509</v>
       </c>
       <c r="D37" t="n">
-        <v>316.8755003619428</v>
+        <v>198.9497450237509</v>
       </c>
       <c r="E37" t="n">
-        <v>316.8755003619428</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="F37" t="n">
-        <v>169.9855528640325</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="G37" t="n">
-        <v>169.9855528640325</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H37" t="n">
         <v>15.00204697330559</v>
@@ -7101,46 +7101,46 @@
         <v>106.7151088594234</v>
       </c>
       <c r="L37" t="n">
-        <v>279.6026869745584</v>
+        <v>118.7527324484195</v>
       </c>
       <c r="M37" t="n">
-        <v>295.5529562639638</v>
+        <v>285.983849229595</v>
       </c>
       <c r="N37" t="n">
-        <v>481.2032875586205</v>
+        <v>471.6341805242516</v>
       </c>
       <c r="O37" t="n">
-        <v>634.3723839608017</v>
+        <v>634.3723839608018</v>
       </c>
       <c r="P37" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="Q37" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="R37" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="S37" t="n">
-        <v>560.6825636487947</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="T37" t="n">
-        <v>371.26277863231</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="U37" t="n">
-        <v>371.26277863231</v>
+        <v>557.3057129681425</v>
       </c>
       <c r="V37" t="n">
-        <v>371.26277863231</v>
+        <v>557.3057129681425</v>
       </c>
       <c r="W37" t="n">
-        <v>316.8755003619428</v>
+        <v>557.3057129681425</v>
       </c>
       <c r="X37" t="n">
-        <v>316.8755003619428</v>
+        <v>557.3057129681425</v>
       </c>
       <c r="Y37" t="n">
-        <v>316.8755003619428</v>
+        <v>367.8859279516578</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>371.2627786323101</v>
+        <v>210.8831693494285</v>
       </c>
       <c r="C38" t="n">
-        <v>181.8429936158253</v>
+        <v>210.8831693494285</v>
       </c>
       <c r="D38" t="n">
-        <v>181.8429936158253</v>
+        <v>21.46338433294358</v>
       </c>
       <c r="E38" t="n">
-        <v>181.8429936158253</v>
+        <v>21.46338433294358</v>
       </c>
       <c r="F38" t="n">
-        <v>181.8429936158253</v>
+        <v>21.46338433294358</v>
       </c>
       <c r="G38" t="n">
-        <v>181.8429936158253</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H38" t="n">
         <v>15.0020469733056</v>
@@ -7174,52 +7174,52 @@
         <v>15.0020469733056</v>
       </c>
       <c r="J38" t="n">
-        <v>21.03371160678512</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K38" t="n">
-        <v>80.81213159058973</v>
+        <v>80.81213159058984</v>
       </c>
       <c r="L38" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M38" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N38" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O38" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P38" t="n">
-        <v>734.4611726020266</v>
+        <v>734.461172602027</v>
       </c>
       <c r="Q38" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R38" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="S38" t="n">
-        <v>750.1023486652798</v>
+        <v>589.7227393823982</v>
       </c>
       <c r="T38" t="n">
-        <v>750.1023486652798</v>
+        <v>589.7227393823982</v>
       </c>
       <c r="U38" t="n">
-        <v>560.6825636487949</v>
+        <v>400.3029543659134</v>
       </c>
       <c r="V38" t="n">
-        <v>371.2627786323101</v>
+        <v>400.3029543659134</v>
       </c>
       <c r="W38" t="n">
-        <v>371.2627786323101</v>
+        <v>400.3029543659134</v>
       </c>
       <c r="X38" t="n">
-        <v>371.2627786323101</v>
+        <v>400.3029543659134</v>
       </c>
       <c r="Y38" t="n">
-        <v>371.2627786323101</v>
+        <v>400.3029543659134</v>
       </c>
     </row>
     <row r="39">
@@ -7229,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>189.4550762544326</v>
+        <v>348.6925312598881</v>
       </c>
       <c r="C39" t="n">
-        <v>15.0020469733056</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="D39" t="n">
-        <v>15.0020469733056</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="E39" t="n">
         <v>15.0020469733056</v>
@@ -7256,7 +7256,7 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K39" t="n">
-        <v>67.13418877024213</v>
+        <v>67.13418877024215</v>
       </c>
       <c r="L39" t="n">
         <v>183.5548280772649</v>
@@ -7265,40 +7265,40 @@
         <v>338.7690911140244</v>
       </c>
       <c r="N39" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O39" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476353</v>
       </c>
       <c r="P39" t="n">
-        <v>739.5989987017063</v>
+        <v>739.5989987017067</v>
       </c>
       <c r="Q39" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R39" t="n">
-        <v>722.9192922843279</v>
+        <v>727.5321012928579</v>
       </c>
       <c r="S39" t="n">
-        <v>571.6362168389242</v>
+        <v>727.5321012928579</v>
       </c>
       <c r="T39" t="n">
-        <v>571.6362168389242</v>
+        <v>538.112316276373</v>
       </c>
       <c r="U39" t="n">
-        <v>571.6362168389242</v>
+        <v>538.112316276373</v>
       </c>
       <c r="V39" t="n">
-        <v>568.2946462874022</v>
+        <v>538.112316276373</v>
       </c>
       <c r="W39" t="n">
-        <v>378.8748612709174</v>
+        <v>538.112316276373</v>
       </c>
       <c r="X39" t="n">
-        <v>378.8748612709174</v>
+        <v>538.112316276373</v>
       </c>
       <c r="Y39" t="n">
-        <v>189.4550762544326</v>
+        <v>348.6925312598881</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.0020469733056</v>
+        <v>237.0987689245423</v>
       </c>
       <c r="C40" t="n">
-        <v>15.0020469733056</v>
+        <v>68.16258599663541</v>
       </c>
       <c r="D40" t="n">
-        <v>15.0020469733056</v>
+        <v>68.16258599663541</v>
       </c>
       <c r="E40" t="n">
-        <v>15.0020469733056</v>
+        <v>68.16258599663541</v>
       </c>
       <c r="F40" t="n">
-        <v>15.0020469733056</v>
+        <v>68.16258599663541</v>
       </c>
       <c r="G40" t="n">
-        <v>15.0020469733056</v>
+        <v>68.16258599663541</v>
       </c>
       <c r="H40" t="n">
-        <v>15.0020469733056</v>
+        <v>68.16258599663541</v>
       </c>
       <c r="I40" t="n">
         <v>15.0020469733056</v>
@@ -7335,49 +7335,49 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7151088594234</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L40" t="n">
-        <v>279.6026869745584</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M40" t="n">
-        <v>465.2530182692152</v>
+        <v>373.5399563830975</v>
       </c>
       <c r="N40" t="n">
-        <v>587.3641452287296</v>
+        <v>559.1902876777543</v>
       </c>
       <c r="O40" t="n">
-        <v>750.1023486652798</v>
+        <v>721.9284911143045</v>
       </c>
       <c r="P40" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="Q40" t="n">
-        <v>746.7254979846275</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R40" t="n">
-        <v>612.5614882768594</v>
+        <v>615.9383389575121</v>
       </c>
       <c r="S40" t="n">
-        <v>612.5614882768594</v>
+        <v>426.5185539410272</v>
       </c>
       <c r="T40" t="n">
-        <v>612.5614882768594</v>
+        <v>426.5185539410272</v>
       </c>
       <c r="U40" t="n">
-        <v>423.1417032603746</v>
+        <v>426.5185539410272</v>
       </c>
       <c r="V40" t="n">
-        <v>393.8416170062752</v>
+        <v>426.5185539410272</v>
       </c>
       <c r="W40" t="n">
-        <v>204.4218319897904</v>
+        <v>237.0987689245423</v>
       </c>
       <c r="X40" t="n">
-        <v>204.4218319897904</v>
+        <v>237.0987689245423</v>
       </c>
       <c r="Y40" t="n">
-        <v>15.0020469733056</v>
+        <v>237.0987689245423</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>331.1605361513809</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="C41" t="n">
-        <v>331.1605361513809</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="D41" t="n">
-        <v>141.7407511348962</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="E41" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F41" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G41" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H41" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I41" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J41" t="n">
-        <v>21.0337116067845</v>
+        <v>21.03371160678498</v>
       </c>
       <c r="K41" t="n">
-        <v>80.81213159058899</v>
+        <v>80.81213159058979</v>
       </c>
       <c r="L41" t="n">
-        <v>191.874309407918</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M41" t="n">
-        <v>347.1218190644751</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N41" t="n">
-        <v>509.4952041123825</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O41" t="n">
-        <v>649.4845259985578</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P41" t="n">
-        <v>734.4611726020262</v>
+        <v>734.461172602027</v>
       </c>
       <c r="Q41" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R41" t="n">
-        <v>738.6222485201466</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="S41" t="n">
-        <v>738.6222485201466</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="T41" t="n">
-        <v>738.6222485201466</v>
+        <v>583.2614020227603</v>
       </c>
       <c r="U41" t="n">
-        <v>738.6222485201466</v>
+        <v>583.2614020227603</v>
       </c>
       <c r="V41" t="n">
-        <v>549.2024635036619</v>
+        <v>583.2614020227603</v>
       </c>
       <c r="W41" t="n">
-        <v>359.7826784871772</v>
+        <v>583.2614020227603</v>
       </c>
       <c r="X41" t="n">
-        <v>359.7826784871772</v>
+        <v>393.8416170062754</v>
       </c>
       <c r="Y41" t="n">
-        <v>359.7826784871772</v>
+        <v>204.4218319897905</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>116.8624079336487</v>
+        <v>577.7890280535779</v>
       </c>
       <c r="C42" t="n">
-        <v>116.8624079336487</v>
+        <v>403.3359987724509</v>
       </c>
       <c r="D42" t="n">
-        <v>116.8624079336487</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="E42" t="n">
-        <v>116.8624079336487</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="F42" t="n">
-        <v>116.8624079336487</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="G42" t="n">
         <v>116.8624079336487</v>
       </c>
       <c r="H42" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I42" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J42" t="n">
-        <v>15.00204697330528</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K42" t="n">
-        <v>67.13418877024182</v>
+        <v>67.13418877024215</v>
       </c>
       <c r="L42" t="n">
-        <v>183.5548280772646</v>
+        <v>183.5548280772654</v>
       </c>
       <c r="M42" t="n">
-        <v>338.769091114024</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N42" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O42" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476353</v>
       </c>
       <c r="P42" t="n">
-        <v>739.5989987017059</v>
+        <v>739.5989987017067</v>
       </c>
       <c r="Q42" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R42" t="n">
-        <v>750.1023486652794</v>
+        <v>722.9192922843282</v>
       </c>
       <c r="S42" t="n">
-        <v>750.1023486652794</v>
+        <v>722.9192922843282</v>
       </c>
       <c r="T42" t="n">
-        <v>750.1023486652794</v>
+        <v>577.7890280535779</v>
       </c>
       <c r="U42" t="n">
-        <v>685.1217629831028</v>
+        <v>577.7890280535779</v>
       </c>
       <c r="V42" t="n">
-        <v>495.7019779666181</v>
+        <v>577.7890280535779</v>
       </c>
       <c r="W42" t="n">
-        <v>306.2821929501334</v>
+        <v>577.7890280535779</v>
       </c>
       <c r="X42" t="n">
-        <v>116.8624079336487</v>
+        <v>577.7890280535779</v>
       </c>
       <c r="Y42" t="n">
-        <v>116.8624079336487</v>
+        <v>577.7890280535779</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>141.9790366408477</v>
+        <v>178.4661429351732</v>
       </c>
       <c r="C43" t="n">
-        <v>141.9790366408477</v>
+        <v>178.4661429351732</v>
       </c>
       <c r="D43" t="n">
-        <v>141.9790366408477</v>
+        <v>178.4661429351732</v>
       </c>
       <c r="E43" t="n">
-        <v>141.9790366408477</v>
+        <v>178.4661429351732</v>
       </c>
       <c r="F43" t="n">
         <v>141.9790366408477</v>
@@ -7566,55 +7566,55 @@
         <v>141.9790366408477</v>
       </c>
       <c r="I43" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J43" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K43" t="n">
-        <v>43.17590452428081</v>
+        <v>43.17590452428124</v>
       </c>
       <c r="L43" t="n">
-        <v>216.0634826394159</v>
+        <v>216.0634826394163</v>
       </c>
       <c r="M43" t="n">
-        <v>401.7138139340725</v>
+        <v>401.7138139340731</v>
       </c>
       <c r="N43" t="n">
-        <v>587.3641452287292</v>
+        <v>587.36414522873</v>
       </c>
       <c r="O43" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="P43" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="Q43" t="n">
-        <v>750.1023486652794</v>
+        <v>746.7254979846279</v>
       </c>
       <c r="R43" t="n">
-        <v>750.1023486652794</v>
+        <v>746.7254979846279</v>
       </c>
       <c r="S43" t="n">
-        <v>702.4670715040568</v>
+        <v>557.305712968143</v>
       </c>
       <c r="T43" t="n">
-        <v>702.4670715040568</v>
+        <v>557.305712968143</v>
       </c>
       <c r="U43" t="n">
-        <v>702.4670715040568</v>
+        <v>367.8859279516581</v>
       </c>
       <c r="V43" t="n">
-        <v>513.0472864875721</v>
+        <v>367.8859279516581</v>
       </c>
       <c r="W43" t="n">
-        <v>323.6275014710874</v>
+        <v>178.4661429351732</v>
       </c>
       <c r="X43" t="n">
-        <v>323.6275014710874</v>
+        <v>178.4661429351732</v>
       </c>
       <c r="Y43" t="n">
-        <v>323.6275014710874</v>
+        <v>178.4661429351732</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>204.4218319897903</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="C44" t="n">
-        <v>204.4218319897903</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="D44" t="n">
-        <v>204.4218319897903</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E44" t="n">
-        <v>204.4218319897903</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F44" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G44" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H44" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I44" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J44" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678498</v>
       </c>
       <c r="K44" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058947</v>
       </c>
       <c r="L44" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M44" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N44" t="n">
-        <v>509.4952041123823</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O44" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P44" t="n">
-        <v>734.4611726020262</v>
+        <v>734.461172602027</v>
       </c>
       <c r="Q44" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R44" t="n">
-        <v>750.1023486652794</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="S44" t="n">
-        <v>750.1023486652794</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="T44" t="n">
-        <v>560.6825636487947</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="U44" t="n">
-        <v>371.26277863231</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="V44" t="n">
-        <v>371.26277863231</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="W44" t="n">
-        <v>371.26277863231</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="X44" t="n">
-        <v>371.26277863231</v>
+        <v>549.2024635036626</v>
       </c>
       <c r="Y44" t="n">
-        <v>204.4218319897903</v>
+        <v>359.7826784871777</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.133934959413</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="C45" t="n">
-        <v>166.133934959413</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="D45" t="n">
-        <v>166.133934959413</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="E45" t="n">
-        <v>166.133934959413</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="F45" t="n">
-        <v>166.133934959413</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G45" t="n">
-        <v>166.133934959413</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H45" t="n">
-        <v>64.27357399906981</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I45" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J45" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330607</v>
       </c>
       <c r="K45" t="n">
-        <v>67.13418877024213</v>
+        <v>67.13418877024262</v>
       </c>
       <c r="L45" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772654</v>
       </c>
       <c r="M45" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N45" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O45" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476353</v>
       </c>
       <c r="P45" t="n">
-        <v>739.5989987017063</v>
+        <v>739.5989987017067</v>
       </c>
       <c r="Q45" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R45" t="n">
-        <v>722.9192922843274</v>
+        <v>722.9192922843282</v>
       </c>
       <c r="S45" t="n">
-        <v>722.9192922843274</v>
+        <v>722.9192922843282</v>
       </c>
       <c r="T45" t="n">
-        <v>722.9192922843274</v>
+        <v>533.4995072678433</v>
       </c>
       <c r="U45" t="n">
-        <v>544.9735049923823</v>
+        <v>531.3807981838262</v>
       </c>
       <c r="V45" t="n">
-        <v>544.9735049923823</v>
+        <v>341.9610131673413</v>
       </c>
       <c r="W45" t="n">
-        <v>355.5537199758976</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="X45" t="n">
-        <v>355.5537199758976</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="Y45" t="n">
-        <v>166.133934959413</v>
+        <v>152.5412281508565</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>568.4538838350396</v>
+        <v>367.8859279516581</v>
       </c>
       <c r="C46" t="n">
-        <v>568.4538838350396</v>
+        <v>367.8859279516581</v>
       </c>
       <c r="D46" t="n">
-        <v>418.3372444227039</v>
+        <v>367.8859279516581</v>
       </c>
       <c r="E46" t="n">
-        <v>270.4241508403107</v>
+        <v>219.972834369265</v>
       </c>
       <c r="F46" t="n">
-        <v>123.5342033424004</v>
+        <v>73.08288687135465</v>
       </c>
       <c r="G46" t="n">
-        <v>123.5342033424004</v>
+        <v>73.08288687135465</v>
       </c>
       <c r="H46" t="n">
-        <v>123.5342033424004</v>
+        <v>73.08288687135465</v>
       </c>
       <c r="I46" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J46" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K46" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L46" t="n">
         <v>187.8896250884407</v>
       </c>
       <c r="M46" t="n">
-        <v>285.9838492295947</v>
+        <v>373.5399563830975</v>
       </c>
       <c r="N46" t="n">
-        <v>471.6341805242514</v>
+        <v>559.1902876777543</v>
       </c>
       <c r="O46" t="n">
-        <v>634.3723839608016</v>
+        <v>721.9284911143045</v>
       </c>
       <c r="P46" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="Q46" t="n">
-        <v>750.1023486652794</v>
+        <v>746.7254979846279</v>
       </c>
       <c r="R46" t="n">
-        <v>750.1023486652794</v>
+        <v>746.7254979846279</v>
       </c>
       <c r="S46" t="n">
-        <v>750.1023486652794</v>
+        <v>746.7254979846279</v>
       </c>
       <c r="T46" t="n">
-        <v>750.1023486652794</v>
+        <v>746.7254979846279</v>
       </c>
       <c r="U46" t="n">
-        <v>750.1023486652794</v>
+        <v>746.7254979846279</v>
       </c>
       <c r="V46" t="n">
-        <v>750.1023486652794</v>
+        <v>557.305712968143</v>
       </c>
       <c r="W46" t="n">
-        <v>750.1023486652794</v>
+        <v>557.305712968143</v>
       </c>
       <c r="X46" t="n">
-        <v>750.1023486652794</v>
+        <v>367.8859279516581</v>
       </c>
       <c r="Y46" t="n">
-        <v>750.1023486652794</v>
+        <v>367.8859279516581</v>
       </c>
     </row>
   </sheetData>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>94.94057842793617</v>
+        <v>94.94057842793596</v>
       </c>
       <c r="K8" t="n">
-        <v>91.04028772612304</v>
+        <v>91.0402877261227</v>
       </c>
       <c r="L8" t="n">
-        <v>75.66902032996595</v>
+        <v>75.66902032996555</v>
       </c>
       <c r="M8" t="n">
-        <v>52.20703422478783</v>
+        <v>52.20703422478741</v>
       </c>
       <c r="N8" t="n">
-        <v>48.39138611544712</v>
+        <v>48.39138611544669</v>
       </c>
       <c r="O8" t="n">
-        <v>59.16457454667201</v>
+        <v>59.16457454667159</v>
       </c>
       <c r="P8" t="n">
-        <v>85.34509137190145</v>
+        <v>85.34509137190108</v>
       </c>
       <c r="Q8" t="n">
-        <v>112.7499493333941</v>
+        <v>112.7499493333938</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>75.55388432278828</v>
+        <v>75.55388432278815</v>
       </c>
       <c r="K9" t="n">
-        <v>50.18935495437053</v>
+        <v>50.18935495437032</v>
       </c>
       <c r="L9" t="n">
-        <v>20.69533587598389</v>
+        <v>20.6953358759836</v>
       </c>
       <c r="M9" t="n">
-        <v>4.598088738143133</v>
+        <v>4.598088738142792</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>13.4476825889887</v>
+        <v>13.44768258898839</v>
       </c>
       <c r="P9" t="n">
-        <v>30.32130058698804</v>
+        <v>30.32130058698779</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.6924171770462</v>
+        <v>70.69241717704602</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>76.14186760203111</v>
+        <v>76.14186760203097</v>
       </c>
       <c r="L10" t="n">
-        <v>67.22749933622114</v>
+        <v>67.22749933622097</v>
       </c>
       <c r="M10" t="n">
-        <v>67.59077709527961</v>
+        <v>67.59077709527944</v>
       </c>
       <c r="N10" t="n">
-        <v>58.04672463427598</v>
+        <v>58.0467246342758</v>
       </c>
       <c r="O10" t="n">
-        <v>74.13381696834476</v>
+        <v>74.1338169683446</v>
       </c>
       <c r="P10" t="n">
-        <v>82.68880372650437</v>
+        <v>82.68880372650423</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8850,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L13" t="n">
-        <v>162.4747015415544</v>
+        <v>74.0341892652893</v>
       </c>
       <c r="M13" t="n">
-        <v>171.4142040457085</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N13" t="n">
-        <v>163.8604018711118</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P13" t="n">
-        <v>46.5660510377763</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9087,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>14.1043098940285</v>
+        <v>88.70546398364588</v>
       </c>
       <c r="L16" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>171.4142040457084</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N16" t="n">
-        <v>163.8604018711116</v>
+        <v>163.8604018711115</v>
       </c>
       <c r="O16" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>46.56605103777595</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9324,16 +9324,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>14.1043098940285</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>74.03418926528937</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M19" t="n">
-        <v>171.4142040457083</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>163.8604018711116</v>
+        <v>154.1946371899311</v>
       </c>
       <c r="O19" t="n">
         <v>163.0416663658825</v>
@@ -9798,13 +9798,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>42.56275186471073</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L25" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>171.4142040457084</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N25" t="n">
         <v>163.8604018711116</v>
@@ -9813,7 +9813,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P25" t="n">
-        <v>18.10760906709386</v>
+        <v>46.56605103777598</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -10035,13 +10035,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>14.10430989402852</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>162.4747015415544</v>
+        <v>98.29368706161254</v>
       </c>
       <c r="M28" t="n">
-        <v>171.4142040457084</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N28" t="n">
         <v>163.8604018711116</v>
@@ -10050,7 +10050,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>46.56605103777609</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10278,16 +10278,16 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>171.4142040457084</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N31" t="n">
-        <v>75.41988959484661</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O31" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>135.0065633140411</v>
+        <v>46.56605103777633</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10509,7 +10509,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>14.10430989402852</v>
+        <v>42.56275186471073</v>
       </c>
       <c r="L34" t="n">
         <v>162.4747015415544</v>
@@ -10524,7 +10524,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
-        <v>46.56605103777609</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10749,16 +10749,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>152.8089368603738</v>
       </c>
       <c r="N37" t="n">
         <v>163.8604018711116</v>
       </c>
       <c r="O37" t="n">
-        <v>153.3759016847017</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P37" t="n">
         <v>135.0065633140411</v>
@@ -10983,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L40" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>171.4142040457084</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N40" t="n">
-        <v>99.67938739116994</v>
+        <v>163.8604018711118</v>
       </c>
       <c r="O40" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
-        <v>18.10760906709386</v>
+        <v>46.56605103777633</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11220,16 +11220,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>42.56275186471056</v>
+        <v>42.56275186471098</v>
       </c>
       <c r="L43" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M43" t="n">
-        <v>171.4142040457083</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N43" t="n">
-        <v>163.8604018711116</v>
+        <v>163.8604018711118</v>
       </c>
       <c r="O43" t="n">
         <v>163.0416663658825</v>
@@ -11463,16 +11463,16 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M46" t="n">
-        <v>82.97369176944311</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N46" t="n">
-        <v>163.8604018711116</v>
+        <v>163.8604018711118</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
-        <v>135.0065633140411</v>
+        <v>46.56605103777633</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23260,10 +23260,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>177.7473046046875</v>
+        <v>182.7158797623278</v>
       </c>
       <c r="D11" t="n">
-        <v>167.1574544543629</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>11.36529914368131</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>25.91829388988671</v>
+        <v>25.91829388988697</v>
       </c>
       <c r="U11" t="n">
-        <v>85.99672338893558</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23351,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>48.77881175550657</v>
+        <v>48.77881175550658</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>26.91122581714237</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>195.4095977920012</v>
+        <v>7.884010625681441</v>
       </c>
       <c r="U12" t="n">
-        <v>38.33818124377086</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V12" t="n">
-        <v>45.2749999831052</v>
+        <v>106.2638928652983</v>
       </c>
       <c r="W12" t="n">
-        <v>187.3642033355646</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.1571086109843</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H13" t="n">
         <v>153.4336708318196</v>
       </c>
       <c r="I13" t="n">
-        <v>125.7072197708667</v>
+        <v>109.2988127915492</v>
       </c>
       <c r="J13" t="n">
-        <v>23.43375830553082</v>
+        <v>23.43375830553086</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23466,19 +23466,19 @@
         <v>132.8223696106904</v>
       </c>
       <c r="S13" t="n">
-        <v>191.6739699282692</v>
+        <v>19.25466862917642</v>
       </c>
       <c r="T13" t="n">
-        <v>223.7196734901001</v>
+        <v>36.19408632378028</v>
       </c>
       <c r="U13" t="n">
-        <v>98.73949432713022</v>
+        <v>98.73949432713047</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>98.99741117027094</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.2082544971607</v>
+        <v>195.2082544971608</v>
       </c>
       <c r="C14" t="n">
-        <v>177.7473046046876</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23506,10 +23506,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>241.703508565617</v>
       </c>
       <c r="G14" t="n">
-        <v>225.5722460637381</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H14" t="n">
         <v>316.8938261062223</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>11.36529914368137</v>
       </c>
       <c r="S14" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T14" t="n">
-        <v>213.4438810562068</v>
+        <v>25.918293889887</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871055</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>232.4307006236403</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23582,7 +23582,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>142.242787970256</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23591,10 +23591,10 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H15" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>26.91122581714237</v>
+        <v>11.35925774729427</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T15" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U15" t="n">
-        <v>38.338181243771</v>
+        <v>38.33818124377115</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310549</v>
       </c>
       <c r="W15" t="n">
-        <v>64.16939599459968</v>
+        <v>64.16939599459982</v>
       </c>
       <c r="X15" t="n">
-        <v>18.24739803715755</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23676,7 +23676,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J16" t="n">
-        <v>23.43375830553082</v>
+        <v>23.43375830553086</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23706,19 +23706,19 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T16" t="n">
-        <v>36.19408632378017</v>
+        <v>36.19408632378031</v>
       </c>
       <c r="U16" t="n">
-        <v>124.4356264912015</v>
+        <v>98.7394943271305</v>
       </c>
       <c r="V16" t="n">
-        <v>64.61205615750808</v>
+        <v>64.61205615750822</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>124.6935433343424</v>
       </c>
       <c r="X16" t="n">
-        <v>38.18406822271723</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23746,7 +23746,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.097833230058</v>
+        <v>259.2905951976449</v>
       </c>
       <c r="H17" t="n">
         <v>316.8938261062223</v>
@@ -23779,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>11.36529914368131</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T17" t="n">
         <v>25.91829388988688</v>
@@ -23791,7 +23791,7 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V17" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>379.8412146700122</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="18">
@@ -23816,22 +23816,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H18" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I18" t="n">
-        <v>48.77881175550657</v>
+        <v>48.77881175550658</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>26.91122581714239</v>
       </c>
       <c r="S18" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T18" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377103</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>67.62804997333075</v>
       </c>
       <c r="W18" t="n">
-        <v>137.1800580822068</v>
+        <v>64.16939599459971</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715758</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23892,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>23.13316608107303</v>
       </c>
       <c r="D19" t="n">
-        <v>58.12255538463783</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.0019352027142</v>
@@ -23910,10 +23910,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J19" t="n">
-        <v>23.43375830553082</v>
+        <v>23.43375830553086</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>19.25466862917634</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T19" t="n">
         <v>223.7196734901001</v>
@@ -23971,13 +23971,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>211.4656537385944</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>167.1574544543631</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23986,7 +23986,7 @@
         <v>413.097833230058</v>
       </c>
       <c r="H20" t="n">
-        <v>316.8938261062223</v>
+        <v>151.7212889301278</v>
       </c>
       <c r="I20" t="n">
         <v>125.4713171199747</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S20" t="n">
         <v>158.7758131900531</v>
@@ -24025,10 +24025,10 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U20" t="n">
-        <v>63.64367339871043</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W20" t="n">
         <v>161.7153815510931</v>
@@ -24050,10 +24050,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>157.3062065031709</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>16.93539976073521</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24062,10 +24062,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>48.77881175550657</v>
@@ -24098,13 +24098,13 @@
         <v>26.91122581714238</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T21" t="n">
-        <v>7.884010625681356</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U21" t="n">
-        <v>38.33818124377103</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24132,13 +24132,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>13.59161997369239</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>54.53458731487851</v>
       </c>
       <c r="J22" t="n">
         <v>23.43375830553084</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R22" t="n">
         <v>132.8223696106904</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>31.0590661857749</v>
       </c>
     </row>
     <row r="23">
@@ -24211,16 +24211,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>167.1574544543631</v>
+        <v>189.5105044445885</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G23" t="n">
-        <v>259.2905951976449</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H23" t="n">
         <v>316.8938261062223</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S23" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T23" t="n">
-        <v>25.91829388988688</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U23" t="n">
         <v>251.1692605650303</v>
@@ -24271,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>182.2055135121491</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="24">
@@ -24293,7 +24293,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24341,19 +24341,19 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U24" t="n">
-        <v>218.3363116893974</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>67.6280499733308</v>
       </c>
       <c r="W24" t="n">
-        <v>64.16939599459971</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X24" t="n">
-        <v>18.24739803715758</v>
+        <v>18.24739803715761</v>
       </c>
       <c r="Y24" t="n">
-        <v>18.15710861098447</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.00252517968855</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>153.4336708318196</v>
@@ -24408,25 +24408,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R25" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S25" t="n">
-        <v>206.7802557954962</v>
+        <v>19.25466862917636</v>
       </c>
       <c r="T25" t="n">
-        <v>223.7196734901001</v>
+        <v>184.4574469969691</v>
       </c>
       <c r="U25" t="n">
-        <v>98.73949432713039</v>
+        <v>98.73949432713042</v>
       </c>
       <c r="V25" t="n">
-        <v>64.61205615750811</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>98.99741117027111</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C26" t="n">
-        <v>177.7473046046877</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24457,10 +24457,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>247.9252960539635</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H26" t="n">
-        <v>129.3682389399024</v>
+        <v>151.7212889301279</v>
       </c>
       <c r="I26" t="n">
         <v>125.4713171199747</v>
@@ -24496,7 +24496,7 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T26" t="n">
-        <v>25.91829388988688</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U26" t="n">
         <v>251.1692605650303</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="27">
@@ -24521,19 +24521,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>88.56296819369489</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>136.1637893657753</v>
@@ -24578,16 +24578,16 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>67.51167384452546</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>126.9581606529274</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>125.7072197708667</v>
+        <v>32.0743108755433</v>
       </c>
       <c r="J28" t="n">
         <v>23.43375830553084</v>
@@ -24648,13 +24648,13 @@
         <v>3.343082173845801</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S28" t="n">
         <v>206.7802557954962</v>
       </c>
       <c r="T28" t="n">
-        <v>36.1940863237802</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U28" t="n">
         <v>286.2650814934503</v>
@@ -24666,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>38.18406822271726</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971606</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046875</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>228.1231320398485</v>
       </c>
       <c r="F29" t="n">
-        <v>219.3504585753915</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>225.5722460637381</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H29" t="n">
         <v>316.8938261062223</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.96857515763991</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T29" t="n">
-        <v>25.91829388988688</v>
+        <v>25.91829388988677</v>
       </c>
       <c r="U29" t="n">
         <v>251.1692605650303</v>
@@ -24779,7 +24779,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I30" t="n">
-        <v>48.77881175550657</v>
+        <v>24.4782533930471</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>13.45478411291108</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681242</v>
       </c>
       <c r="U30" t="n">
-        <v>38.33818124377103</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24827,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>18.15710861098447</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24849,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>139.5568390651683</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H31" t="n">
         <v>153.4336708318196</v>
@@ -24885,28 +24885,28 @@
         <v>3.343082173845801</v>
       </c>
       <c r="R31" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>206.7802557954962</v>
+        <v>19.25466862917622</v>
       </c>
       <c r="T31" t="n">
-        <v>36.1940863237802</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U31" t="n">
         <v>286.2650814934503</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750799</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>254.1728307711867</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>38.18406822271714</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.0590661857749</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>211.4656537385944</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24973,19 +24973,19 @@
         <v>25.91829388988688</v>
       </c>
       <c r="U32" t="n">
-        <v>63.64367339871043</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V32" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>195.4337306849999</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121491</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25004,19 +25004,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I33" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>195.4095977920013</v>
@@ -25058,10 +25058,10 @@
         <v>45.27499998310537</v>
       </c>
       <c r="W33" t="n">
-        <v>223.1751229237735</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>18.24739803715758</v>
+        <v>27.17334532411718</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>38.09320131137363</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H34" t="n">
         <v>153.4336708318196</v>
       </c>
       <c r="I34" t="n">
-        <v>123.1860929869495</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J34" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R34" t="n">
         <v>132.8223696106904</v>
@@ -25131,7 +25131,7 @@
         <v>36.1940863237802</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2650814934503</v>
+        <v>98.73949432713039</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25168,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H35" t="n">
-        <v>310.497102120181</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I35" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>11.36529914368134</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T35" t="n">
-        <v>25.91829388988691</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U35" t="n">
-        <v>63.64367339871046</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>288.0510384140152</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>182.2055135121492</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="36">
@@ -25241,16 +25241,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>41.9525028295017</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I36" t="n">
         <v>48.77881175550657</v>
@@ -25280,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T36" t="n">
-        <v>7.884010625681384</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U36" t="n">
-        <v>38.33818124377106</v>
+        <v>38.33818124377103</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>188.2466903833125</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715758</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25314,22 +25314,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>131.3276767793425</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I37" t="n">
         <v>125.7072197708667</v>
@@ -25356,31 +25356,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S37" t="n">
-        <v>19.25466862917636</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T37" t="n">
-        <v>36.19408632378023</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2650814934503</v>
+        <v>98.73949432713039</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>232.6795928489275</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>31.0590661857749</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971605</v>
       </c>
       <c r="C38" t="n">
-        <v>177.7473046046876</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543629</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,10 +25405,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.097833230058</v>
+        <v>406.7011092440164</v>
       </c>
       <c r="H38" t="n">
-        <v>151.7212889301278</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I38" t="n">
         <v>125.4713171199747</v>
@@ -25441,16 +25441,16 @@
         <v>11.36529914368134</v>
       </c>
       <c r="S38" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U38" t="n">
-        <v>63.64367339871038</v>
+        <v>63.64367339871029</v>
       </c>
       <c r="V38" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25478,7 +25478,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>4.56668091844433</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T39" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681213</v>
       </c>
       <c r="U39" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V39" t="n">
-        <v>229.4924323034185</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>64.16939599459965</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>18.15710861098441</v>
+        <v>18.15710861098432</v>
       </c>
     </row>
     <row r="40">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>153.4336708318196</v>
       </c>
       <c r="I40" t="n">
-        <v>125.7072197708667</v>
+        <v>73.07828613777015</v>
       </c>
       <c r="J40" t="n">
         <v>23.43375830553084</v>
@@ -25593,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>206.7802557954962</v>
+        <v>19.25466862917619</v>
       </c>
       <c r="T40" t="n">
         <v>223.7196734901001</v>
       </c>
       <c r="U40" t="n">
-        <v>98.73949432713033</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V40" t="n">
-        <v>223.1305579322696</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>98.99741117027105</v>
+        <v>98.99741117027096</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.05906618577484</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>354.3979207510423</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>167.1574544543631</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059417</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25648,7 +25648,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T41" t="n">
-        <v>213.4438810562068</v>
+        <v>59.63664302379354</v>
       </c>
       <c r="U41" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V41" t="n">
-        <v>140.2266713038151</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>161.7153815510932</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>182.205513512149</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897335</v>
       </c>
     </row>
     <row r="42">
@@ -25709,10 +25709,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25721,7 +25721,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25754,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T42" t="n">
-        <v>195.4095977920013</v>
+        <v>51.73063620355848</v>
       </c>
       <c r="U42" t="n">
-        <v>161.5329885847362</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V42" t="n">
-        <v>45.27499998310543</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>64.16939599459977</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>18.24739803715764</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>109.298812791549</v>
       </c>
       <c r="G43" t="n">
         <v>167.0019352027142</v>
@@ -25830,25 +25830,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S43" t="n">
-        <v>159.6213314058859</v>
+        <v>19.25466862917619</v>
       </c>
       <c r="T43" t="n">
         <v>223.7196734901001</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2650814934503</v>
+        <v>98.73949432713025</v>
       </c>
       <c r="V43" t="n">
-        <v>64.61205615750816</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>98.99741117027116</v>
+        <v>98.99741117027096</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>228.9266036310673</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543629</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>219.3504585753916</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>413.097833230058</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T44" t="n">
-        <v>25.91829388988694</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U44" t="n">
-        <v>63.64367339871049</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>182.205513512149</v>
       </c>
       <c r="Y44" t="n">
-        <v>221.0654014799591</v>
+        <v>198.7123514897335</v>
       </c>
     </row>
     <row r="45">
@@ -25958,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25997,22 +25997,22 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T45" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681213</v>
       </c>
       <c r="U45" t="n">
-        <v>49.69743899106533</v>
+        <v>223.7662464169139</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310523</v>
       </c>
       <c r="W45" t="n">
-        <v>64.16939599459977</v>
+        <v>64.16939599459957</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>18.15710861098452</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>153.4336708318196</v>
       </c>
       <c r="I46" t="n">
-        <v>18.2603849654628</v>
+        <v>68.20718827179812</v>
       </c>
       <c r="J46" t="n">
         <v>23.43375830553084</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>132.8223696106904</v>
@@ -26082,13 +26082,13 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750796</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>38.18406822271712</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>884256.7301194596</v>
+        <v>884256.7301194594</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>385268.5348185386</v>
+        <v>385268.5348185385</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>385268.5348185387</v>
+        <v>385268.5348185385</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>385268.5348185386</v>
+        <v>385268.5348185387</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>385268.5348185385</v>
+        <v>385268.5348185387</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>385268.5348185385</v>
+        <v>385268.5348185386</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>385268.5348185386</v>
+        <v>385268.5348185385</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>385268.5348185386</v>
+        <v>385268.5348185388</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>385268.5348185385</v>
+        <v>385268.5348185388</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>385268.5348185388</v>
+        <v>385268.5348185387</v>
       </c>
     </row>
   </sheetData>
@@ -26316,19 +26316,19 @@
         <v>593975.3455698527</v>
       </c>
       <c r="C2" t="n">
-        <v>593983.4705023393</v>
+        <v>593983.4705023397</v>
       </c>
       <c r="D2" t="n">
-        <v>594033.8929813806</v>
+        <v>594033.8929813802</v>
       </c>
       <c r="E2" t="n">
-        <v>261640.3438391929</v>
+        <v>261640.3438391926</v>
       </c>
       <c r="F2" t="n">
-        <v>261640.3438391928</v>
+        <v>261640.3438391927</v>
       </c>
       <c r="G2" t="n">
-        <v>261640.3438391926</v>
+        <v>261640.3438391927</v>
       </c>
       <c r="H2" t="n">
         <v>261640.3438391928</v>
@@ -26337,25 +26337,25 @@
         <v>261640.3438391927</v>
       </c>
       <c r="J2" t="n">
+        <v>261640.3438391927</v>
+      </c>
+      <c r="K2" t="n">
         <v>261640.3438391928</v>
       </c>
-      <c r="K2" t="n">
-        <v>261640.3438391927</v>
-      </c>
       <c r="L2" t="n">
-        <v>261640.3438391927</v>
+        <v>261640.3438391926</v>
       </c>
       <c r="M2" t="n">
         <v>261640.3438391928</v>
       </c>
       <c r="N2" t="n">
-        <v>261640.3438391928</v>
+        <v>261640.3438391929</v>
       </c>
       <c r="O2" t="n">
         <v>261640.3438391928</v>
       </c>
       <c r="P2" t="n">
-        <v>261640.3438391927</v>
+        <v>261640.3438391929</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>31890.43005335696</v>
+        <v>31890.43005335695</v>
       </c>
       <c r="D3" t="n">
-        <v>186131.5386439649</v>
+        <v>186131.5386439654</v>
       </c>
       <c r="E3" t="n">
-        <v>293887.0052572952</v>
+        <v>293887.0052572945</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>46732.12642419562</v>
+        <v>46732.12642419557</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,16 +26423,16 @@
         <v>451297.1840150487</v>
       </c>
       <c r="D4" t="n">
-        <v>378217.4776078496</v>
+        <v>378217.4776078494</v>
       </c>
       <c r="E4" t="n">
-        <v>15525.834211893</v>
+        <v>15525.83421189299</v>
       </c>
       <c r="F4" t="n">
         <v>15525.83421189299</v>
       </c>
       <c r="G4" t="n">
-        <v>15525.83421189299</v>
+        <v>15525.834211893</v>
       </c>
       <c r="H4" t="n">
         <v>15525.834211893</v>
@@ -26441,25 +26441,25 @@
         <v>15525.83421189299</v>
       </c>
       <c r="J4" t="n">
+        <v>15525.83421189299</v>
+      </c>
+      <c r="K4" t="n">
         <v>15525.834211893</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15525.83421189299</v>
       </c>
       <c r="L4" t="n">
         <v>15525.834211893</v>
       </c>
       <c r="M4" t="n">
-        <v>15525.83421189299</v>
+        <v>15525.834211893</v>
       </c>
       <c r="N4" t="n">
         <v>15525.834211893</v>
       </c>
       <c r="O4" t="n">
-        <v>15525.83421189299</v>
+        <v>15525.834211893</v>
       </c>
       <c r="P4" t="n">
-        <v>15525.83421189299</v>
+        <v>15525.834211893</v>
       </c>
     </row>
     <row r="5">
@@ -26475,16 +26475,16 @@
         <v>34391.06348367693</v>
       </c>
       <c r="D5" t="n">
-        <v>39129.03780735501</v>
+        <v>39129.03780735502</v>
       </c>
       <c r="E5" t="n">
-        <v>23358.20041161358</v>
+        <v>23358.20041161356</v>
       </c>
       <c r="F5" t="n">
-        <v>23358.20041161357</v>
+        <v>23358.20041161356</v>
       </c>
       <c r="G5" t="n">
-        <v>23358.20041161357</v>
+        <v>23358.20041161356</v>
       </c>
       <c r="H5" t="n">
         <v>23358.20041161357</v>
@@ -26496,7 +26496,7 @@
         <v>23358.20041161357</v>
       </c>
       <c r="K5" t="n">
-        <v>23358.20041161357</v>
+        <v>23358.20041161358</v>
       </c>
       <c r="L5" t="n">
         <v>23358.20041161357</v>
@@ -26505,13 +26505,13 @@
         <v>23358.20041161357</v>
       </c>
       <c r="N5" t="n">
-        <v>23358.20041161357</v>
+        <v>23358.20041161358</v>
       </c>
       <c r="O5" t="n">
-        <v>23358.20041161356</v>
+        <v>23358.20041161358</v>
       </c>
       <c r="P5" t="n">
-        <v>23358.20041161356</v>
+        <v>23358.20041161358</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>97152.87868906184</v>
+        <v>97192.60088987486</v>
       </c>
       <c r="C6" t="n">
-        <v>76360.93734166135</v>
+        <v>76400.40738939754</v>
       </c>
       <c r="D6" t="n">
-        <v>-9486.277980210532</v>
+        <v>-9448.372768031797</v>
       </c>
       <c r="E6" t="n">
-        <v>-82634.65946617487</v>
+        <v>-72281.09238406495</v>
       </c>
       <c r="F6" t="n">
-        <v>211252.3457911203</v>
+        <v>221605.9128732296</v>
       </c>
       <c r="G6" t="n">
-        <v>211252.3457911201</v>
+        <v>221605.9128732295</v>
       </c>
       <c r="H6" t="n">
-        <v>211252.3457911203</v>
+        <v>221605.9128732296</v>
       </c>
       <c r="I6" t="n">
-        <v>211252.3457911202</v>
+        <v>221605.9128732296</v>
       </c>
       <c r="J6" t="n">
-        <v>211252.3457911203</v>
+        <v>221605.9128732295</v>
       </c>
       <c r="K6" t="n">
-        <v>211252.3457911202</v>
+        <v>221605.9128732296</v>
       </c>
       <c r="L6" t="n">
-        <v>211252.3457911202</v>
+        <v>221605.9128732294</v>
       </c>
       <c r="M6" t="n">
-        <v>164520.2193669246</v>
+        <v>174873.786449034</v>
       </c>
       <c r="N6" t="n">
-        <v>211252.3457911203</v>
+        <v>221605.9128732297</v>
       </c>
       <c r="O6" t="n">
-        <v>211252.3457911203</v>
+        <v>221605.9128732296</v>
       </c>
       <c r="P6" t="n">
-        <v>211252.3457911202</v>
+        <v>221605.9128732297</v>
       </c>
     </row>
   </sheetData>
@@ -26743,16 +26743,16 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>252.3595324474774</v>
+        <v>252.359532447478</v>
       </c>
       <c r="E3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="F3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="G3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="H3" t="n">
         <v>548.4699409129046</v>
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="F4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="G4" t="n">
         <v>187.5255871663199</v>
@@ -26816,7 +26816,7 @@
         <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="L4" t="n">
         <v>187.5255871663199</v>
@@ -26828,10 +26828,10 @@
         <v>187.52558716632</v>
       </c>
       <c r="O4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="P4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
     </row>
   </sheetData>
@@ -26962,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="D3" t="n">
-        <v>217.3382717283521</v>
+        <v>217.3382717283527</v>
       </c>
       <c r="E3" t="n">
-        <v>296.1104084654273</v>
+        <v>296.1104084654265</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27715,7 +27715,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I6" t="n">
-        <v>86.80307722268739</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>329.0849445813843</v>
       </c>
       <c r="I8" t="n">
-        <v>171.3639664561089</v>
+        <v>171.3639664561088</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>86.14136123721458</v>
+        <v>86.14136123721443</v>
       </c>
       <c r="S8" t="n">
-        <v>185.90190739269</v>
+        <v>185.9019073926899</v>
       </c>
       <c r="T8" t="n">
         <v>218.6548290483973</v>
@@ -27952,7 +27952,7 @@
         <v>106.993032062446</v>
       </c>
       <c r="I9" t="n">
-        <v>70.7077429484651</v>
+        <v>70.70774294846505</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>66.45593281937434</v>
+        <v>66.45593281937425</v>
       </c>
       <c r="S9" t="n">
-        <v>161.6006935574693</v>
+        <v>161.6006935574692</v>
       </c>
       <c r="T9" t="n">
         <v>197.9768191635081</v>
@@ -28034,7 +28034,7 @@
         <v>141.765141593877</v>
       </c>
       <c r="J10" t="n">
-        <v>61.18540825037717</v>
+        <v>61.18540825037709</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>48.05575385212529</v>
+        <v>48.0557538521252</v>
       </c>
       <c r="R10" t="n">
-        <v>156.8315840413462</v>
+        <v>156.8315840413461</v>
       </c>
       <c r="S10" t="n">
         <v>216.0858894516966</v>
@@ -31311,16 +31311,16 @@
         <v>15.20362680796963</v>
       </c>
       <c r="R5" t="n">
-        <v>8.843836255870379</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S5" t="n">
         <v>3.208229059847512</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6163037941626979</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7275171330520188</v>
+        <v>0.7275171330520187</v>
       </c>
       <c r="I6" t="n">
         <v>2.593555628727678</v>
       </c>
       <c r="J6" t="n">
-        <v>7.11691487877999</v>
+        <v>7.116914878779989</v>
       </c>
       <c r="K6" t="n">
         <v>12.16394109335884</v>
@@ -31378,7 +31378,7 @@
         <v>19.0865870919233</v>
       </c>
       <c r="N6" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O6" t="n">
         <v>17.92262575689049</v>
@@ -31436,22 +31436,22 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H7" t="n">
         <v>0.5614884095623703</v>
       </c>
       <c r="I7" t="n">
-        <v>1.899185745227322</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J7" t="n">
-        <v>4.464923682174388</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K7" t="n">
         <v>7.337241180170845</v>
       </c>
       <c r="L7" t="n">
-        <v>9.389142586894684</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M7" t="n">
         <v>9.899534402948818</v>
@@ -31460,10 +31460,10 @@
         <v>9.664145601394049</v>
       </c>
       <c r="O7" t="n">
-        <v>8.926402650179686</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P7" t="n">
-        <v>7.638079550938413</v>
+        <v>7.638079550938412</v>
       </c>
       <c r="Q7" t="n">
         <v>5.288210368587925</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.014510683205939</v>
+        <v>1.014510683205941</v>
       </c>
       <c r="H8" t="n">
-        <v>10.38985753438282</v>
+        <v>10.38985753438285</v>
       </c>
       <c r="I8" t="n">
-        <v>39.11192311429699</v>
+        <v>39.11192311429708</v>
       </c>
       <c r="J8" t="n">
-        <v>86.10532609875011</v>
+        <v>86.10532609875033</v>
       </c>
       <c r="K8" t="n">
-        <v>129.0495633188575</v>
+        <v>129.0495633188578</v>
       </c>
       <c r="L8" t="n">
-        <v>160.0973946400213</v>
+        <v>160.0973946400217</v>
       </c>
       <c r="M8" t="n">
-        <v>178.1391990024849</v>
+        <v>178.1391990024853</v>
       </c>
       <c r="N8" t="n">
-        <v>181.0216774811438</v>
+        <v>181.0216774811442</v>
       </c>
       <c r="O8" t="n">
-        <v>170.9336368750147</v>
+        <v>170.9336368750151</v>
       </c>
       <c r="P8" t="n">
-        <v>145.8879043833681</v>
+        <v>145.8879043833685</v>
       </c>
       <c r="Q8" t="n">
-        <v>109.5557405410554</v>
+        <v>109.5557405410557</v>
       </c>
       <c r="R8" t="n">
-        <v>63.7277567039351</v>
+        <v>63.72775670393526</v>
       </c>
       <c r="S8" t="n">
-        <v>23.11816219355535</v>
+        <v>23.11816219355541</v>
       </c>
       <c r="T8" t="n">
-        <v>4.441020515733999</v>
+        <v>4.441020515734009</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08116085465647507</v>
+        <v>0.08116085465647527</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5428110697926873</v>
+        <v>0.5428110697926887</v>
       </c>
       <c r="H9" t="n">
-        <v>5.242412174050428</v>
+        <v>5.242412174050441</v>
       </c>
       <c r="I9" t="n">
-        <v>18.68888990294998</v>
+        <v>18.68888990295003</v>
       </c>
       <c r="J9" t="n">
-        <v>51.28374234387842</v>
+        <v>51.28374234387854</v>
       </c>
       <c r="K9" t="n">
-        <v>87.65208401998846</v>
+        <v>87.65208401998868</v>
       </c>
       <c r="L9" t="n">
-        <v>117.8590439038903</v>
+        <v>117.8590439038906</v>
       </c>
       <c r="M9" t="n">
-        <v>137.5359451838752</v>
+        <v>137.5359451838755</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>129.1485618554557</v>
+        <v>129.1485618554561</v>
       </c>
       <c r="P9" t="n">
-        <v>103.6531068273422</v>
+        <v>103.6531068273425</v>
       </c>
       <c r="Q9" t="n">
-        <v>69.28935690897532</v>
+        <v>69.28935690897549</v>
       </c>
       <c r="R9" t="n">
-        <v>33.70190133326879</v>
+        <v>33.70190133326887</v>
       </c>
       <c r="S9" t="n">
-        <v>10.08247754636855</v>
+        <v>10.08247754636857</v>
       </c>
       <c r="T9" t="n">
-        <v>2.187909531313506</v>
+        <v>2.187909531313512</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03571125459162418</v>
+        <v>0.03571125459162427</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4550745667085658</v>
+        <v>0.4550745667085669</v>
       </c>
       <c r="H10" t="n">
-        <v>4.046026602190706</v>
+        <v>4.046026602190716</v>
       </c>
       <c r="I10" t="n">
-        <v>13.68533333338124</v>
+        <v>13.68533333338127</v>
       </c>
       <c r="J10" t="n">
-        <v>32.1737718662956</v>
+        <v>32.17377186629568</v>
       </c>
       <c r="K10" t="n">
-        <v>52.87139056850427</v>
+        <v>52.8713905685044</v>
       </c>
       <c r="L10" t="n">
-        <v>67.65717694501714</v>
+        <v>67.65717694501731</v>
       </c>
       <c r="M10" t="n">
-        <v>71.33500685232545</v>
+        <v>71.33500685232562</v>
       </c>
       <c r="N10" t="n">
-        <v>69.63881983095722</v>
+        <v>69.63881983095739</v>
       </c>
       <c r="O10" t="n">
-        <v>64.32272148349803</v>
+        <v>64.32272148349819</v>
       </c>
       <c r="P10" t="n">
-        <v>55.03920032264325</v>
+        <v>55.03920032264338</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.10628939956909</v>
+        <v>38.10628939956919</v>
       </c>
       <c r="R10" t="n">
-        <v>20.46180733582333</v>
+        <v>20.46180733582338</v>
       </c>
       <c r="S10" t="n">
-        <v>7.93070858527564</v>
+        <v>7.930708585275659</v>
       </c>
       <c r="T10" t="n">
-        <v>1.944409512300235</v>
+        <v>1.94440951230024</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02482224909319453</v>
+        <v>0.02482224909319459</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H11" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I11" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J11" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K11" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L11" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M11" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N11" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O11" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P11" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q11" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R11" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S11" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T11" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U11" t="n">
         <v>0.1763923428061601</v>
@@ -31834,46 +31834,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H12" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I12" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J12" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K12" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L12" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M12" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N12" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O12" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P12" t="n">
         <v>225.2762668628872</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R12" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S12" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T12" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H13" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I13" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J13" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K13" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L13" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M13" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N13" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O13" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R13" t="n">
-        <v>44.47102176647911</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S13" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T13" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H14" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I14" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J14" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K14" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L14" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M14" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N14" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O14" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P14" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q14" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R14" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S14" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T14" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U14" t="n">
         <v>0.1763923428061601</v>
@@ -32071,46 +32071,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H15" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I15" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J15" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K15" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L15" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M15" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N15" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O15" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P15" t="n">
         <v>225.2762668628872</v>
       </c>
       <c r="Q15" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R15" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S15" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T15" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H16" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I16" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J16" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K16" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L16" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M16" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N16" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O16" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P16" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R16" t="n">
-        <v>44.47102176647911</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S16" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T16" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H17" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I17" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J17" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K17" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L17" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M17" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N17" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O17" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P17" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q17" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R17" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S17" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T17" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U17" t="n">
         <v>0.1763923428061601</v>
@@ -32308,46 +32308,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H18" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I18" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J18" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K18" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L18" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M18" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N18" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O18" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292676</v>
       </c>
       <c r="P18" t="n">
         <v>225.2762668628872</v>
       </c>
       <c r="Q18" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R18" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S18" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T18" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H19" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I19" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J19" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K19" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L19" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M19" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N19" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O19" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P19" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R19" t="n">
-        <v>44.47102176647911</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S19" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T19" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32800,7 +32800,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N24" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O24" t="n">
         <v>280.6872536292673</v>
@@ -33985,7 +33985,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N39" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829659</v>
       </c>
       <c r="O39" t="n">
         <v>280.6872536292673</v>
@@ -34131,7 +34131,7 @@
         <v>85.00457245043118</v>
       </c>
       <c r="J41" t="n">
-        <v>187.1384950655539</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K41" t="n">
         <v>280.4720934528639</v>
@@ -34216,7 +34216,7 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L42" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405037</v>
       </c>
       <c r="M42" t="n">
         <v>298.9161177975329</v>
@@ -34380,7 +34380,7 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N44" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470028</v>
       </c>
       <c r="O44" t="n">
         <v>371.501566862268</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K11" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L11" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M11" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N11" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O11" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P11" t="n">
-        <v>85.83499656915996</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.79916774065978</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L12" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M12" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4858258996321</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O12" t="n">
-        <v>138.0910091848233</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P12" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,19 +35573,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>174.6339172880152</v>
+        <v>86.19340501175004</v>
       </c>
       <c r="M13" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="N13" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="O13" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P13" t="n">
-        <v>28.45844197068246</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K14" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L14" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M14" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N14" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O14" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P14" t="n">
-        <v>85.83499656915996</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.79916774065978</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L15" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M15" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N15" t="n">
-        <v>175.4858258996319</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O15" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P15" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q15" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764983</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>74.60115408961734</v>
       </c>
       <c r="L16" t="n">
         <v>174.6339172880152</v>
       </c>
       <c r="M16" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="N16" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="O16" t="n">
-        <v>164.382023673283</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P16" t="n">
-        <v>28.45844197068212</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K17" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L17" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M17" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N17" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O17" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P17" t="n">
-        <v>85.83499656915996</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q17" t="n">
-        <v>15.79916774065978</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>52.65872908781443</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L18" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M18" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N18" t="n">
-        <v>175.4858258996321</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O18" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848232</v>
       </c>
       <c r="P18" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q18" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>92.63945645062398</v>
       </c>
       <c r="L19" t="n">
-        <v>86.19340501175017</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M19" t="n">
-        <v>187.5255871663199</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N19" t="n">
-        <v>187.5255871663199</v>
+        <v>177.8598224851394</v>
       </c>
       <c r="O19" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P19" t="n">
-        <v>116.8989542469473</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36369,7 +36369,7 @@
         <v>156.8156663197546</v>
       </c>
       <c r="N23" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504112</v>
       </c>
       <c r="O23" t="n">
         <v>141.4033554405812</v>
@@ -36378,7 +36378,7 @@
         <v>85.8349965691599</v>
       </c>
       <c r="Q23" t="n">
-        <v>15.79916774065954</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N24" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996318</v>
       </c>
       <c r="O24" t="n">
         <v>138.0910091848229</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>28.45844197068221</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>174.6339172880152</v>
@@ -36533,7 +36533,7 @@
         <v>164.382023673283</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>28.45844197068212</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538867702</v>
       </c>
       <c r="K26" t="n">
         <v>60.38224240788333</v>
@@ -36694,7 +36694,7 @@
         <v>91.30185944855694</v>
       </c>
       <c r="Q27" t="n">
-        <v>10.60944440764983</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,10 +36755,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>92.63945645062401</v>
       </c>
       <c r="L28" t="n">
-        <v>174.6339172880152</v>
+        <v>110.4529028080733</v>
       </c>
       <c r="M28" t="n">
         <v>187.5255871663199</v>
@@ -36770,7 +36770,7 @@
         <v>164.382023673283</v>
       </c>
       <c r="P28" t="n">
-        <v>28.45844197068223</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868263</v>
       </c>
       <c r="K29" t="n">
         <v>60.38224240788333</v>
@@ -36852,7 +36852,7 @@
         <v>85.8349965691599</v>
       </c>
       <c r="Q29" t="n">
-        <v>15.79916774065954</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36998,16 +36998,16 @@
         <v>174.6339172880152</v>
       </c>
       <c r="M31" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N31" t="n">
-        <v>99.08507489005487</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O31" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P31" t="n">
-        <v>116.8989542469472</v>
+        <v>28.45844197068246</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>28.45844197068221</v>
       </c>
       <c r="L34" t="n">
         <v>174.6339172880152</v>
@@ -37244,7 +37244,7 @@
         <v>164.382023673283</v>
       </c>
       <c r="P34" t="n">
-        <v>28.45844197068223</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37469,16 +37469,16 @@
         <v>92.63945645062401</v>
       </c>
       <c r="L37" t="n">
-        <v>174.6339172880152</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M37" t="n">
-        <v>16.11138312061152</v>
+        <v>168.9203199809853</v>
       </c>
       <c r="N37" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="O37" t="n">
-        <v>154.7162589921022</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P37" t="n">
         <v>116.8989542469472</v>
@@ -37633,7 +37633,7 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N39" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996325</v>
       </c>
       <c r="O39" t="n">
         <v>138.0910091848229</v>
@@ -37642,7 +37642,7 @@
         <v>91.30185944855694</v>
       </c>
       <c r="Q39" t="n">
-        <v>10.60944440765006</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>92.63945645062401</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>174.6339172880152</v>
@@ -37712,13 +37712,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="N40" t="n">
-        <v>123.3445726863782</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O40" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>28.45844197068246</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>6.092590538867589</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K41" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788364</v>
       </c>
       <c r="L41" t="n">
         <v>112.184017997302</v>
@@ -37864,7 +37864,7 @@
         <v>52.65872908781469</v>
       </c>
       <c r="L42" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606295</v>
       </c>
       <c r="M42" t="n">
         <v>156.7820838755146</v>
@@ -37940,16 +37940,16 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>28.45844197068204</v>
+        <v>28.45844197068246</v>
       </c>
       <c r="L43" t="n">
         <v>174.6339172880152</v>
       </c>
       <c r="M43" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N43" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O43" t="n">
         <v>164.382023673283</v>
@@ -38028,7 +38028,7 @@
         <v>156.8156663197546</v>
       </c>
       <c r="N44" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504119</v>
       </c>
       <c r="O44" t="n">
         <v>141.4033554405812</v>
@@ -38116,7 +38116,7 @@
         <v>91.30185944855694</v>
       </c>
       <c r="Q45" t="n">
-        <v>10.6094444076496</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38183,16 +38183,16 @@
         <v>174.6339172880152</v>
       </c>
       <c r="M46" t="n">
-        <v>99.08507489005463</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N46" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O46" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P46" t="n">
-        <v>116.8989542469472</v>
+        <v>28.45844197068246</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
